--- a/dataset/Sensor1.xlsx
+++ b/dataset/Sensor1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\code\_python\ComNets-Research-Lab-Sensor-Data\dataset\First Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\code\_python\sensor_fault_dataset\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153CEF19-D8AB-4992-A774-F2587F3C133D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636EE475-C08D-4B52-810E-15CAA74A3359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,15 +136,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -458,21 +455,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G228" sqref="G1:AB1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -484,7 +481,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -492,7 +489,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>44760.8125</v>
       </c>
       <c r="B2">
@@ -504,7 +501,7 @@
       <c r="D2">
         <v>30.002400000000002</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>29</v>
       </c>
       <c r="F2" s="1">
@@ -512,7 +509,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>44760.833333333343</v>
       </c>
       <c r="B3">
@@ -524,7 +521,7 @@
       <c r="D3">
         <v>30.002400000000002</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>29</v>
       </c>
       <c r="F3" s="1">
@@ -532,7 +529,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>44760.854166666657</v>
       </c>
       <c r="B4">
@@ -544,7 +541,7 @@
       <c r="D4">
         <v>28.891200000000001</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>30</v>
       </c>
       <c r="F4" s="1">
@@ -552,7 +549,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>44760.875</v>
       </c>
       <c r="B5">
@@ -564,7 +561,7 @@
       <c r="D5">
         <v>27.78</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>35</v>
       </c>
       <c r="F5" s="1">
@@ -572,7 +569,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>44760.895833333343</v>
       </c>
       <c r="B6">
@@ -584,7 +581,7 @@
       <c r="D6">
         <v>27.224399999999999</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>37</v>
       </c>
       <c r="F6" s="1">
@@ -592,7 +589,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>44760.916666666657</v>
       </c>
       <c r="B7">
@@ -604,7 +601,7 @@
       <c r="D7">
         <v>23.890799999999999</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>47</v>
       </c>
       <c r="F7" s="1">
@@ -612,7 +609,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>44760.9375</v>
       </c>
       <c r="B8">
@@ -624,7 +621,7 @@
       <c r="D8">
         <v>22.779599999999999</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>50</v>
       </c>
       <c r="F8" s="1">
@@ -632,7 +629,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>44760.958333333343</v>
       </c>
       <c r="B9">
@@ -644,7 +641,7 @@
       <c r="D9">
         <v>22.224</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>57</v>
       </c>
       <c r="F9" s="1">
@@ -652,7 +649,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>44760.979166666657</v>
       </c>
       <c r="B10">
@@ -664,7 +661,7 @@
       <c r="D10">
         <v>20.0016</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>64</v>
       </c>
       <c r="F10" s="1">
@@ -672,7 +669,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>44761</v>
       </c>
       <c r="B11">
@@ -684,7 +681,7 @@
       <c r="D11">
         <v>18.8904</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>68</v>
       </c>
       <c r="F11" s="1">
@@ -692,7 +689,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>44761.020833333343</v>
       </c>
       <c r="B12">
@@ -704,7 +701,7 @@
       <c r="D12">
         <v>17.223600000000001</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>77</v>
       </c>
       <c r="F12" s="1">
@@ -712,7 +709,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>44761.041666666657</v>
       </c>
       <c r="B13">
@@ -724,7 +721,7 @@
       <c r="D13">
         <v>16.112400000000001</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>82</v>
       </c>
       <c r="F13" s="1">
@@ -732,7 +729,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>44761.0625</v>
       </c>
       <c r="B14">
@@ -744,7 +741,7 @@
       <c r="D14">
         <v>16.112400000000001</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>82</v>
       </c>
       <c r="F14" s="1">
@@ -752,7 +749,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>44761.083333333343</v>
       </c>
       <c r="B15">
@@ -764,7 +761,7 @@
       <c r="D15">
         <v>16.112400000000001</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>77</v>
       </c>
       <c r="F15" s="1">
@@ -772,7 +769,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>44761.104166666657</v>
       </c>
       <c r="B16">
@@ -784,7 +781,7 @@
       <c r="D16">
         <v>15.001200000000001</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>88</v>
       </c>
       <c r="F16" s="1">
@@ -792,7 +789,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>44761.125</v>
       </c>
       <c r="B17">
@@ -804,7 +801,7 @@
       <c r="D17">
         <v>15.001200000000001</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>88</v>
       </c>
       <c r="F17" s="1">
@@ -812,7 +809,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>44761.145833333343</v>
       </c>
       <c r="B18">
@@ -824,7 +821,7 @@
       <c r="D18">
         <v>13.89</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>94</v>
       </c>
       <c r="F18" s="1">
@@ -832,7 +829,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>44761.166666666657</v>
       </c>
       <c r="B19">
@@ -844,7 +841,7 @@
       <c r="D19">
         <v>13.89</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>94</v>
       </c>
       <c r="F19" s="1">
@@ -852,7 +849,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>44761.1875</v>
       </c>
       <c r="B20">
@@ -864,7 +861,7 @@
       <c r="D20">
         <v>13.89</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>94</v>
       </c>
       <c r="F20" s="1">
@@ -872,7 +869,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>44761.208333333343</v>
       </c>
       <c r="B21">
@@ -884,7 +881,7 @@
       <c r="D21">
         <v>13.89</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>94</v>
       </c>
       <c r="F21" s="1">
@@ -892,7 +889,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>44761.229166666657</v>
       </c>
       <c r="B22">
@@ -904,7 +901,7 @@
       <c r="D22">
         <v>13.89</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>94</v>
       </c>
       <c r="F22" s="1">
@@ -912,7 +909,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="6">
         <v>44761.25</v>
       </c>
       <c r="B23">
@@ -924,7 +921,7 @@
       <c r="D23">
         <v>12.7788</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>100</v>
       </c>
       <c r="F23" s="1">
@@ -932,7 +929,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>44761.270833333343</v>
       </c>
       <c r="B24">
@@ -944,7 +941,7 @@
       <c r="D24">
         <v>15.001200000000001</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>88</v>
       </c>
       <c r="F24" s="1">
@@ -952,7 +949,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="6">
         <v>44761.291666666657</v>
       </c>
       <c r="B25">
@@ -964,7 +961,7 @@
       <c r="D25">
         <v>16.112400000000001</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>88</v>
       </c>
       <c r="F25" s="1">
@@ -972,7 +969,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>44761.3125</v>
       </c>
       <c r="B26">
@@ -984,7 +981,7 @@
       <c r="D26">
         <v>18.8904</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>68</v>
       </c>
       <c r="F26" s="1">
@@ -992,7 +989,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <v>44761.333333333343</v>
       </c>
       <c r="B27">
@@ -1004,7 +1001,7 @@
       <c r="D27">
         <v>21.1128</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>56</v>
       </c>
       <c r="F27" s="1">
@@ -1012,7 +1009,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="6">
         <v>44761.354166666657</v>
       </c>
       <c r="B28">
@@ -1024,7 +1021,7 @@
       <c r="D28">
         <v>22.224</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>53</v>
       </c>
       <c r="F28" s="1">
@@ -1032,7 +1029,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="6">
         <v>44761.375</v>
       </c>
       <c r="B29">
@@ -1044,7 +1041,7 @@
       <c r="D29">
         <v>23.890799999999999</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>50</v>
       </c>
       <c r="F29" s="1">
@@ -1052,7 +1049,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="6">
         <v>44761.395833333343</v>
       </c>
       <c r="B30">
@@ -1064,7 +1061,7 @@
       <c r="D30">
         <v>25.001999999999999</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>47</v>
       </c>
       <c r="F30" s="1">
@@ -1072,7 +1069,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="6">
         <v>44761.416666666657</v>
       </c>
       <c r="B31">
@@ -1084,7 +1081,7 @@
       <c r="D31">
         <v>27.224399999999999</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <v>39</v>
       </c>
       <c r="F31" s="1">
@@ -1092,7 +1089,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="6">
         <v>44761.4375</v>
       </c>
       <c r="B32">
@@ -1104,7 +1101,7 @@
       <c r="D32">
         <v>27.78</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>39</v>
       </c>
       <c r="F32" s="1">
@@ -1112,7 +1109,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="6">
         <v>44761.458333333343</v>
       </c>
       <c r="B33">
@@ -1124,7 +1121,7 @@
       <c r="D33">
         <v>28.891200000000001</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <v>35</v>
       </c>
       <c r="F33" s="1">
@@ -1132,7 +1129,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="6">
         <v>44761.479166666657</v>
       </c>
       <c r="B34">
@@ -1144,7 +1141,7 @@
       <c r="D34">
         <v>31.113600000000002</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>29</v>
       </c>
       <c r="F34" s="1">
@@ -1152,7 +1149,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="6">
         <v>44761.5</v>
       </c>
       <c r="B35">
@@ -1164,7 +1161,7 @@
       <c r="D35">
         <v>31.113600000000002</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="5">
         <v>27</v>
       </c>
       <c r="F35" s="1">
@@ -1172,7 +1169,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="6">
         <v>44761.520833333343</v>
       </c>
       <c r="B36">
@@ -1184,7 +1181,7 @@
       <c r="D36">
         <v>32.224800000000002</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="5">
         <v>26</v>
       </c>
       <c r="F36" s="1">
@@ -1192,7 +1189,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="6">
         <v>44761.541666666657</v>
       </c>
       <c r="B37">
@@ -1204,7 +1201,7 @@
       <c r="D37">
         <v>32.7804</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="5">
         <v>24</v>
       </c>
       <c r="F37" s="1">
@@ -1212,7 +1209,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="6">
         <v>44761.5625</v>
       </c>
       <c r="B38">
@@ -1224,7 +1221,7 @@
       <c r="D38">
         <v>32.7804</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="5">
         <v>24</v>
       </c>
       <c r="F38" s="1">
@@ -1232,7 +1229,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="6">
         <v>44761.583333333343</v>
       </c>
       <c r="B39">
@@ -1244,7 +1241,7 @@
       <c r="D39">
         <v>33.891599999999997</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="5">
         <v>21</v>
       </c>
       <c r="F39" s="1">
@@ -1252,7 +1249,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="6">
         <v>44761.604166666657</v>
       </c>
       <c r="B40">
@@ -1264,7 +1261,7 @@
       <c r="D40">
         <v>33.891599999999997</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="5">
         <v>21</v>
       </c>
       <c r="F40" s="1">
@@ -1272,7 +1269,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="6">
         <v>44761.625</v>
       </c>
       <c r="B41">
@@ -1284,7 +1281,7 @@
       <c r="D41">
         <v>35.002800000000001</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="5">
         <v>20</v>
       </c>
       <c r="F41" s="1">
@@ -1292,7 +1289,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="6">
         <v>44761.645833333343</v>
       </c>
       <c r="B42">
@@ -1304,7 +1301,7 @@
       <c r="D42">
         <v>35.002800000000001</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="5">
         <v>22</v>
       </c>
       <c r="F42" s="1">
@@ -1312,7 +1309,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="6">
         <v>44761.666666666657</v>
       </c>
       <c r="B43">
@@ -1324,7 +1321,7 @@
       <c r="D43">
         <v>35.002800000000001</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="5">
         <v>20</v>
       </c>
       <c r="F43" s="1">
@@ -1332,7 +1329,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="6">
         <v>44761.6875</v>
       </c>
       <c r="B44">
@@ -1344,7 +1341,7 @@
       <c r="D44">
         <v>36.113999999999997</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="5">
         <v>19</v>
       </c>
       <c r="F44" s="1">
@@ -1352,7 +1349,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" s="6">
         <v>44761.708333333343</v>
       </c>
       <c r="B45">
@@ -1364,7 +1361,7 @@
       <c r="D45">
         <v>35.002800000000001</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="5">
         <v>19</v>
       </c>
       <c r="F45" s="1">
@@ -1372,7 +1369,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="6">
         <v>44761.729166666657</v>
       </c>
       <c r="B46">
@@ -1384,7 +1381,7 @@
       <c r="D46">
         <v>35.002800000000001</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="5">
         <v>20</v>
       </c>
       <c r="F46" s="1">
@@ -1392,7 +1389,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="6">
         <v>44761.75</v>
       </c>
       <c r="B47">
@@ -1404,7 +1401,7 @@
       <c r="D47">
         <v>33.891599999999997</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="5">
         <v>21</v>
       </c>
       <c r="F47" s="1">
@@ -1412,7 +1409,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="6">
         <v>44761.770833333343</v>
       </c>
       <c r="B48">
@@ -1424,7 +1421,7 @@
       <c r="D48">
         <v>32.7804</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="5">
         <v>29</v>
       </c>
       <c r="F48" s="1">
@@ -1432,7 +1429,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="A49" s="6">
         <v>44761.791666666657</v>
       </c>
       <c r="B49">
@@ -1444,7 +1441,7 @@
       <c r="D49">
         <v>32.7804</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="5">
         <v>26</v>
       </c>
       <c r="F49" s="1">
@@ -1452,7 +1449,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="6">
         <v>44761.8125</v>
       </c>
       <c r="B50">
@@ -1464,7 +1461,7 @@
       <c r="D50">
         <v>33.891599999999997</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="5">
         <v>23</v>
       </c>
       <c r="F50" s="1">
@@ -1472,7 +1469,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="A51" s="6">
         <v>44761.833333333343</v>
       </c>
       <c r="B51">
@@ -1484,7 +1481,7 @@
       <c r="D51">
         <v>33.891599999999997</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="5">
         <v>23</v>
       </c>
       <c r="F51" s="1">
@@ -1492,7 +1489,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="A52" s="6">
         <v>44761.854166666657</v>
       </c>
       <c r="B52">
@@ -1504,7 +1501,7 @@
       <c r="D52">
         <v>32.224800000000002</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="5">
         <v>29</v>
       </c>
       <c r="F52" s="1">
@@ -1512,7 +1509,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="A53" s="6">
         <v>44761.875</v>
       </c>
       <c r="B53">
@@ -1524,7 +1521,7 @@
       <c r="D53">
         <v>31.113600000000002</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="5">
         <v>31</v>
       </c>
       <c r="F53" s="1">
@@ -1532,7 +1529,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="A54" s="6">
         <v>44761.895833333343</v>
       </c>
       <c r="B54">
@@ -1544,7 +1541,7 @@
       <c r="D54">
         <v>30.002400000000002</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="5">
         <v>31</v>
       </c>
       <c r="F54" s="1">
@@ -1552,7 +1549,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="A55" s="6">
         <v>44761.916666666657</v>
       </c>
       <c r="B55">
@@ -1564,7 +1561,7 @@
       <c r="D55">
         <v>28.891200000000001</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="5">
         <v>33</v>
       </c>
       <c r="F55" s="1">
@@ -1572,7 +1569,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="6">
         <v>44761.9375</v>
       </c>
       <c r="B56">
@@ -1584,7 +1581,7 @@
       <c r="D56">
         <v>27.224399999999999</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="5">
         <v>37</v>
       </c>
       <c r="F56" s="1">
@@ -1592,7 +1589,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="A57" s="6">
         <v>44761.958333333343</v>
       </c>
       <c r="B57">
@@ -1604,7 +1601,7 @@
       <c r="D57">
         <v>28.891200000000001</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="5">
         <v>33</v>
       </c>
       <c r="F57" s="1">
@@ -1612,7 +1609,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="A58" s="6">
         <v>44761.979166666657</v>
       </c>
       <c r="B58">
@@ -1624,7 +1621,7 @@
       <c r="D58">
         <v>27.224399999999999</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="5">
         <v>37</v>
       </c>
       <c r="F58" s="1">
@@ -1632,7 +1629,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="A59" s="6">
         <v>44762</v>
       </c>
       <c r="B59">
@@ -1644,7 +1641,7 @@
       <c r="D59">
         <v>24.224399999999999</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="5">
         <v>35</v>
       </c>
       <c r="F59" s="1">
@@ -1652,7 +1649,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60" s="6">
         <v>44762.020833333343</v>
       </c>
       <c r="B60">
@@ -1664,7 +1661,7 @@
       <c r="D60">
         <v>26.113199999999999</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="5">
         <v>34</v>
       </c>
       <c r="F60" s="1">
@@ -1672,7 +1669,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61" s="6">
         <v>44762.041666666657</v>
       </c>
       <c r="B61">
@@ -1684,7 +1681,7 @@
       <c r="D61">
         <v>26.113199999999999</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="5">
         <v>34</v>
       </c>
       <c r="F61" s="1">
@@ -1692,7 +1689,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62" s="6">
         <v>44762.0625</v>
       </c>
       <c r="B62">
@@ -1704,7 +1701,7 @@
       <c r="D62">
         <v>26.113199999999999</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="5">
         <v>34</v>
       </c>
       <c r="F62" s="1">
@@ -1712,7 +1709,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="A63" s="6">
         <v>44762.083333333343</v>
       </c>
       <c r="B63">
@@ -1724,7 +1721,7 @@
       <c r="D63">
         <v>25.001999999999999</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="5">
         <v>36</v>
       </c>
       <c r="F63" s="1">
@@ -1732,7 +1729,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="A64" s="6">
         <v>44762.104166666657</v>
       </c>
       <c r="B64">
@@ -1744,7 +1741,7 @@
       <c r="D64">
         <v>23.890799999999999</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="5">
         <v>38</v>
       </c>
       <c r="F64" s="1">
@@ -1752,7 +1749,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="A65" s="6">
         <v>44762.125</v>
       </c>
       <c r="B65">
@@ -1764,7 +1761,7 @@
       <c r="D65">
         <v>23.890799999999999</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="5">
         <v>38</v>
       </c>
       <c r="F65" s="1">
@@ -1772,7 +1769,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="A66" s="6">
         <v>44762.145833333343</v>
       </c>
       <c r="B66">
@@ -1784,7 +1781,7 @@
       <c r="D66">
         <v>23.890799999999999</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="5">
         <v>38</v>
       </c>
       <c r="F66" s="1">
@@ -1792,7 +1789,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="A67" s="6">
         <v>44762.166666666657</v>
       </c>
       <c r="B67">
@@ -1804,7 +1801,7 @@
       <c r="D67">
         <v>23.890799999999999</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="5">
         <v>38</v>
       </c>
       <c r="F67" s="1">
@@ -1812,7 +1809,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="A68" s="6">
         <v>44762.1875</v>
       </c>
       <c r="B68">
@@ -1824,7 +1821,7 @@
       <c r="D68">
         <v>22.779599999999999</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="5">
         <v>41</v>
       </c>
       <c r="F68" s="1">
@@ -1832,7 +1829,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="A69" s="6">
         <v>44762.208333333343</v>
       </c>
       <c r="B69">
@@ -1844,7 +1841,7 @@
       <c r="D69">
         <v>22.224</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="5">
         <v>43</v>
       </c>
       <c r="F69" s="1">
@@ -1852,7 +1849,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="A70" s="6">
         <v>44762.229166666657</v>
       </c>
       <c r="B70">
@@ -1864,7 +1861,7 @@
       <c r="D70">
         <v>22.224</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="5">
         <v>43</v>
       </c>
       <c r="F70" s="1">
@@ -1872,7 +1869,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="A71" s="6">
         <v>44762.25</v>
       </c>
       <c r="B71">
@@ -1884,7 +1881,7 @@
       <c r="D71">
         <v>21.1128</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="5">
         <v>46</v>
       </c>
       <c r="F71" s="1">
@@ -1892,7 +1889,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="A72" s="6">
         <v>44762.270833333343</v>
       </c>
       <c r="B72">
@@ -1904,7 +1901,7 @@
       <c r="D72">
         <v>22.224</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="5">
         <v>43</v>
       </c>
       <c r="F72" s="1">
@@ -1912,7 +1909,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="A73" s="6">
         <v>44762.291666666657</v>
       </c>
       <c r="B73">
@@ -1924,7 +1921,7 @@
       <c r="D73">
         <v>22.224</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="5">
         <v>46</v>
       </c>
       <c r="F73" s="1">
@@ -1932,7 +1929,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="A74" s="6">
         <v>44762.3125</v>
       </c>
       <c r="B74">
@@ -1944,7 +1941,7 @@
       <c r="D74">
         <v>22.779599999999999</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="5">
         <v>44</v>
       </c>
       <c r="F74" s="1">
@@ -1952,7 +1949,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+      <c r="A75" s="6">
         <v>44762.333333333343</v>
       </c>
       <c r="B75">
@@ -1964,7 +1961,7 @@
       <c r="D75">
         <v>23.890799999999999</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="5">
         <v>44</v>
       </c>
       <c r="F75" s="1">
@@ -1972,7 +1969,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="A76" s="6">
         <v>44762.354166666657</v>
       </c>
       <c r="B76">
@@ -1984,7 +1981,7 @@
       <c r="D76">
         <v>25.001999999999999</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="5">
         <v>41</v>
       </c>
       <c r="F76" s="1">
@@ -1992,7 +1989,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+      <c r="A77" s="6">
         <v>44762.375</v>
       </c>
       <c r="B77">
@@ -2004,7 +2001,7 @@
       <c r="D77">
         <v>27.224399999999999</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="5">
         <v>37</v>
       </c>
       <c r="F77" s="1">
@@ -2012,7 +2009,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+      <c r="A78" s="6">
         <v>44762.395833333343</v>
       </c>
       <c r="B78">
@@ -2024,7 +2021,7 @@
       <c r="D78">
         <v>28.891200000000001</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="5">
         <v>35</v>
       </c>
       <c r="F78" s="1">
@@ -2032,7 +2029,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+      <c r="A79" s="6">
         <v>44762.416666666657</v>
       </c>
       <c r="B79">
@@ -2044,7 +2041,7 @@
       <c r="D79">
         <v>31.113600000000002</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="5">
         <v>31</v>
       </c>
       <c r="F79" s="1">
@@ -2052,7 +2049,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+      <c r="A80" s="6">
         <v>44762.4375</v>
       </c>
       <c r="B80">
@@ -2064,7 +2061,7 @@
       <c r="D80">
         <v>32.7804</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="5">
         <v>28</v>
       </c>
       <c r="F80" s="1">
@@ -2072,7 +2069,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+      <c r="A81" s="6">
         <v>44762.458333333343</v>
       </c>
       <c r="B81">
@@ -2084,7 +2081,7 @@
       <c r="D81">
         <v>33.891599999999997</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="5">
         <v>26</v>
       </c>
       <c r="F81" s="1">
@@ -2092,7 +2089,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+      <c r="A82" s="6">
         <v>44762.479166666657</v>
       </c>
       <c r="B82">
@@ -2104,7 +2101,7 @@
       <c r="D82">
         <v>35.002800000000001</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="5">
         <v>25</v>
       </c>
       <c r="F82" s="1">
@@ -2112,7 +2109,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+      <c r="A83" s="6">
         <v>44762.5</v>
       </c>
       <c r="B83">
@@ -2124,7 +2121,7 @@
       <c r="D83">
         <v>35.002800000000001</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="5">
         <v>23</v>
       </c>
       <c r="F83" s="1">
@@ -2132,7 +2129,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+      <c r="A84" s="6">
         <v>44762.520833333343</v>
       </c>
       <c r="B84">
@@ -2144,7 +2141,7 @@
       <c r="D84">
         <v>36.113999999999997</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="5">
         <v>19</v>
       </c>
       <c r="F84" s="1">
@@ -2152,7 +2149,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+      <c r="A85" s="6">
         <v>44762.541666666657</v>
       </c>
       <c r="B85">
@@ -2164,7 +2161,7 @@
       <c r="D85">
         <v>37.225200000000001</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="5">
         <v>19</v>
       </c>
       <c r="F85" s="1">
@@ -2172,7 +2169,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+      <c r="A86" s="6">
         <v>44762.5625</v>
       </c>
       <c r="B86">
@@ -2184,7 +2181,7 @@
       <c r="D86">
         <v>36.113999999999997</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="5">
         <v>22</v>
       </c>
       <c r="F86" s="1">
@@ -2192,7 +2189,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+      <c r="A87" s="6">
         <v>44762.583333333343</v>
       </c>
       <c r="B87">
@@ -2204,7 +2201,7 @@
       <c r="D87">
         <v>36.113999999999997</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="5">
         <v>22</v>
       </c>
       <c r="F87" s="1">
@@ -2212,7 +2209,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+      <c r="A88" s="6">
         <v>44762.604166666657</v>
       </c>
       <c r="B88">
@@ -2224,7 +2221,7 @@
       <c r="D88">
         <v>36.113999999999997</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="5">
         <v>22</v>
       </c>
       <c r="F88" s="1">
@@ -2232,7 +2229,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+      <c r="A89" s="6">
         <v>44762.625</v>
       </c>
       <c r="B89">
@@ -2244,7 +2241,7 @@
       <c r="D89">
         <v>36.113999999999997</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="5">
         <v>22</v>
       </c>
       <c r="F89" s="1">
@@ -2252,7 +2249,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+      <c r="A90" s="6">
         <v>44762.645833333343</v>
       </c>
       <c r="B90">
@@ -2264,7 +2261,7 @@
       <c r="D90">
         <v>36.113999999999997</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="5">
         <v>23</v>
       </c>
       <c r="F90" s="1">
@@ -2272,7 +2269,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+      <c r="A91" s="6">
         <v>44762.666666666657</v>
       </c>
       <c r="B91">
@@ -2284,7 +2281,7 @@
       <c r="D91">
         <v>35.002800000000001</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="5">
         <v>30</v>
       </c>
       <c r="F91" s="1">
@@ -2292,7 +2289,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+      <c r="A92" s="6">
         <v>44762.6875</v>
       </c>
       <c r="B92">
@@ -2304,7 +2301,7 @@
       <c r="D92">
         <v>33.891599999999997</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="5">
         <v>32</v>
       </c>
       <c r="F92" s="1">
@@ -2312,7 +2309,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+      <c r="A93" s="6">
         <v>44762.708333333343</v>
       </c>
       <c r="B93">
@@ -2324,7 +2321,7 @@
       <c r="D93">
         <v>33.891599999999997</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="5">
         <v>34</v>
       </c>
       <c r="F93" s="1">
@@ -2332,7 +2329,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+      <c r="A94" s="6">
         <v>44762.729166666657</v>
       </c>
       <c r="B94">
@@ -2344,7 +2341,7 @@
       <c r="D94">
         <v>33.891599999999997</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="5">
         <v>36</v>
       </c>
       <c r="F94" s="1">
@@ -2352,7 +2349,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+      <c r="A95" s="6">
         <v>44762.75</v>
       </c>
       <c r="B95">
@@ -2364,7 +2361,7 @@
       <c r="D95">
         <v>32.224800000000002</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="5">
         <v>38</v>
       </c>
       <c r="F95" s="1">
@@ -2372,7 +2369,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+      <c r="A96" s="6">
         <v>44762.770833333343</v>
       </c>
       <c r="B96">
@@ -2384,7 +2381,7 @@
       <c r="D96">
         <v>31.113600000000002</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="5">
         <v>29</v>
       </c>
       <c r="F96" s="1">
@@ -2392,7 +2389,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+      <c r="A97" s="6">
         <v>44762.791666666657</v>
       </c>
       <c r="B97">
@@ -2404,7 +2401,7 @@
       <c r="D97">
         <v>31.113600000000002</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="5">
         <v>29</v>
       </c>
       <c r="F97" s="1">
@@ -2412,7 +2409,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+      <c r="A98" s="6">
         <v>44762.8125</v>
       </c>
       <c r="B98">
@@ -2424,7 +2421,7 @@
       <c r="D98">
         <v>30.002400000000002</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="5">
         <v>33</v>
       </c>
       <c r="F98" s="1">
@@ -2432,7 +2429,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
+      <c r="A99" s="6">
         <v>44762.833333333343</v>
       </c>
       <c r="B99">
@@ -2444,7 +2441,7 @@
       <c r="D99">
         <v>28.891200000000001</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="5">
         <v>35</v>
       </c>
       <c r="F99" s="1">
@@ -2452,7 +2449,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+      <c r="A100" s="6">
         <v>44762.854166666657</v>
       </c>
       <c r="B100">
@@ -2464,7 +2461,7 @@
       <c r="D100">
         <v>27.78</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="5">
         <v>42</v>
       </c>
       <c r="F100" s="1">
@@ -2472,7 +2469,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+      <c r="A101" s="6">
         <v>44762.875</v>
       </c>
       <c r="B101">
@@ -2484,7 +2481,7 @@
       <c r="D101">
         <v>27.224399999999999</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="5">
         <v>48</v>
       </c>
       <c r="F101" s="1">
@@ -2492,7 +2489,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+      <c r="A102" s="6">
         <v>44762.895833333343</v>
       </c>
       <c r="B102">
@@ -2504,7 +2501,7 @@
       <c r="D102">
         <v>26.113199999999999</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="5">
         <v>51</v>
       </c>
       <c r="F102" s="1">
@@ -2512,7 +2509,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
+      <c r="A103" s="6">
         <v>44762.916666666657</v>
       </c>
       <c r="B103">
@@ -2524,7 +2521,7 @@
       <c r="D103">
         <v>25.001999999999999</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="5">
         <v>50</v>
       </c>
       <c r="F103" s="1">
@@ -2532,7 +2529,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+      <c r="A104" s="6">
         <v>44762.9375</v>
       </c>
       <c r="B104">
@@ -2544,7 +2541,7 @@
       <c r="D104">
         <v>23.890799999999999</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="5">
         <v>57</v>
       </c>
       <c r="F104" s="1">
@@ -2552,7 +2549,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
+      <c r="A105" s="6">
         <v>44762.958333333343</v>
       </c>
       <c r="B105">
@@ -2564,7 +2561,7 @@
       <c r="D105">
         <v>22.779599999999999</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="5">
         <v>61</v>
       </c>
       <c r="F105" s="1">
@@ -2572,7 +2569,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+      <c r="A106" s="6">
         <v>44762.979166666657</v>
       </c>
       <c r="B106">
@@ -2584,7 +2581,7 @@
       <c r="D106">
         <v>22.224</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="5">
         <v>64</v>
       </c>
       <c r="F106" s="1">
@@ -2592,7 +2589,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
+      <c r="A107" s="6">
         <v>44763</v>
       </c>
       <c r="B107">
@@ -2604,7 +2601,7 @@
       <c r="D107">
         <v>22.224</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="5">
         <v>64</v>
       </c>
       <c r="F107" s="1">
@@ -2612,7 +2609,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+      <c r="A108" s="6">
         <v>44763.020833333343</v>
       </c>
       <c r="B108">
@@ -2624,7 +2621,7 @@
       <c r="D108">
         <v>22.224</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="5">
         <v>69</v>
       </c>
       <c r="F108" s="1">
@@ -2632,7 +2629,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+      <c r="A109" s="6">
         <v>44763.041666666657</v>
       </c>
       <c r="B109">
@@ -2644,7 +2641,7 @@
       <c r="D109">
         <v>22.224</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="5">
         <v>69</v>
       </c>
       <c r="F109" s="1">
@@ -2652,7 +2649,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
+      <c r="A110" s="6">
         <v>44763.0625</v>
       </c>
       <c r="B110">
@@ -2664,7 +2661,7 @@
       <c r="D110">
         <v>21.1128</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="5">
         <v>73</v>
       </c>
       <c r="F110" s="1">
@@ -2672,7 +2669,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
+      <c r="A111" s="6">
         <v>44763.083333333343</v>
       </c>
       <c r="B111">
@@ -2684,7 +2681,7 @@
       <c r="D111">
         <v>20.0016</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="5">
         <v>78</v>
       </c>
       <c r="F111" s="1">
@@ -2692,7 +2689,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
+      <c r="A112" s="6">
         <v>44763.104166666657</v>
       </c>
       <c r="B112">
@@ -2704,7 +2701,7 @@
       <c r="D112">
         <v>18.8904</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="5">
         <v>83</v>
       </c>
       <c r="F112" s="1">
@@ -2712,7 +2709,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
+      <c r="A113" s="6">
         <v>44763.125</v>
       </c>
       <c r="B113">
@@ -2724,7 +2721,7 @@
       <c r="D113">
         <v>21.1128</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="5">
         <v>73</v>
       </c>
       <c r="F113" s="1">
@@ -2732,7 +2729,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
+      <c r="A114" s="6">
         <v>44763.145833333343</v>
       </c>
       <c r="B114">
@@ -2744,7 +2741,7 @@
       <c r="D114">
         <v>21.1128</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="5">
         <v>73</v>
       </c>
       <c r="F114" s="1">
@@ -2752,7 +2749,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
+      <c r="A115" s="6">
         <v>44763.166666666657</v>
       </c>
       <c r="B115">
@@ -2764,7 +2761,7 @@
       <c r="D115">
         <v>20.0016</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="5">
         <v>78</v>
       </c>
       <c r="F115" s="1">
@@ -2772,7 +2769,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+      <c r="A116" s="6">
         <v>44763.1875</v>
       </c>
       <c r="B116">
@@ -2784,7 +2781,7 @@
       <c r="D116">
         <v>20.0016</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="5">
         <v>73</v>
       </c>
       <c r="F116" s="1">
@@ -2792,7 +2789,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+      <c r="A117" s="6">
         <v>44763.208333333343</v>
       </c>
       <c r="B117">
@@ -2804,7 +2801,7 @@
       <c r="D117">
         <v>20.0016</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="5">
         <v>73</v>
       </c>
       <c r="F117" s="1">
@@ -2812,7 +2809,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+      <c r="A118" s="6">
         <v>44763.229166666657</v>
       </c>
       <c r="B118">
@@ -2824,7 +2821,7 @@
       <c r="D118">
         <v>18.8904</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="5">
         <v>83</v>
       </c>
       <c r="F118" s="1">
@@ -2832,7 +2829,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
+      <c r="A119" s="6">
         <v>44763.25</v>
       </c>
       <c r="B119">
@@ -2844,7 +2841,7 @@
       <c r="D119">
         <v>18.8904</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="5">
         <v>83</v>
       </c>
       <c r="F119" s="1">
@@ -2852,7 +2849,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+      <c r="A120" s="6">
         <v>44763.270833333343</v>
       </c>
       <c r="B120">
@@ -2864,7 +2861,7 @@
       <c r="D120">
         <v>17.779199999999999</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="5">
         <v>88</v>
       </c>
       <c r="F120" s="1">
@@ -2872,7 +2869,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+      <c r="A121" s="6">
         <v>44763.291666666657</v>
       </c>
       <c r="B121">
@@ -2884,7 +2881,7 @@
       <c r="D121">
         <v>18.8904</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="5">
         <v>88</v>
       </c>
       <c r="F121" s="1">
@@ -2892,7 +2889,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+      <c r="A122" s="6">
         <v>44763.3125</v>
       </c>
       <c r="B122">
@@ -2904,7 +2901,7 @@
       <c r="D122">
         <v>17.779199999999999</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="5">
         <v>94</v>
       </c>
       <c r="F122" s="1">
@@ -2912,7 +2909,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
+      <c r="A123" s="6">
         <v>44763.333333333343</v>
       </c>
       <c r="B123">
@@ -2924,7 +2921,7 @@
       <c r="D123">
         <v>17.779199999999999</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123" s="5">
         <v>94</v>
       </c>
       <c r="F123" s="1">
@@ -2932,7 +2929,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+      <c r="A124" s="6">
         <v>44763.354166666657</v>
       </c>
       <c r="B124">
@@ -2944,7 +2941,7 @@
       <c r="D124">
         <v>17.779199999999999</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="5">
         <v>94</v>
       </c>
       <c r="F124" s="1">
@@ -2952,7 +2949,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
+      <c r="A125" s="6">
         <v>44763.375</v>
       </c>
       <c r="B125">
@@ -2964,7 +2961,7 @@
       <c r="D125">
         <v>17.779199999999999</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="5">
         <v>94</v>
       </c>
       <c r="F125" s="1">
@@ -2972,7 +2969,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+      <c r="A126" s="6">
         <v>44763.395833333343</v>
       </c>
       <c r="B126">
@@ -2984,7 +2981,7 @@
       <c r="D126">
         <v>17.779199999999999</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="5">
         <v>94</v>
       </c>
       <c r="F126" s="1">
@@ -2992,7 +2989,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
+      <c r="A127" s="6">
         <v>44763.416666666657</v>
       </c>
       <c r="B127">
@@ -3004,7 +3001,7 @@
       <c r="D127">
         <v>18.8904</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E127" s="5">
         <v>94</v>
       </c>
       <c r="F127" s="1">
@@ -3012,7 +3009,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+      <c r="A128" s="6">
         <v>44763.4375</v>
       </c>
       <c r="B128">
@@ -3024,7 +3021,7 @@
       <c r="D128">
         <v>18.8904</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128" s="5">
         <v>94</v>
       </c>
       <c r="F128" s="1">
@@ -3032,7 +3029,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
+      <c r="A129" s="6">
         <v>44763.458333333343</v>
       </c>
       <c r="B129">
@@ -3044,7 +3041,7 @@
       <c r="D129">
         <v>20.0016</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E129" s="5">
         <v>88</v>
       </c>
       <c r="F129" s="1">
@@ -3052,7 +3049,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
+      <c r="A130" s="6">
         <v>44763.479166666657</v>
       </c>
       <c r="B130">
@@ -3064,7 +3061,7 @@
       <c r="D130">
         <v>21.1128</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E130" s="5">
         <v>83</v>
       </c>
       <c r="F130" s="1">
@@ -3072,7 +3069,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
+      <c r="A131" s="6">
         <v>44763.5</v>
       </c>
       <c r="B131">
@@ -3084,7 +3081,7 @@
       <c r="D131">
         <v>21.1128</v>
       </c>
-      <c r="E131" s="7">
+      <c r="E131" s="5">
         <v>78</v>
       </c>
       <c r="F131" s="1">
@@ -3092,7 +3089,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
+      <c r="A132" s="6">
         <v>44763.520833333343</v>
       </c>
       <c r="B132">
@@ -3104,7 +3101,7 @@
       <c r="D132">
         <v>22.224</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="5">
         <v>73</v>
       </c>
       <c r="F132" s="1">
@@ -3112,7 +3109,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
+      <c r="A133" s="6">
         <v>44763.541666666657</v>
       </c>
       <c r="B133">
@@ -3124,7 +3121,7 @@
       <c r="D133">
         <v>22.224</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133" s="5">
         <v>73</v>
       </c>
       <c r="F133" s="1">
@@ -3132,7 +3129,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+      <c r="A134" s="6">
         <v>44763.5625</v>
       </c>
       <c r="B134">
@@ -3144,7 +3141,7 @@
       <c r="D134">
         <v>22.779599999999999</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E134" s="5">
         <v>69</v>
       </c>
       <c r="F134" s="1">
@@ -3152,7 +3149,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
+      <c r="A135" s="6">
         <v>44763.583333333343</v>
       </c>
       <c r="B135">
@@ -3164,7 +3161,7 @@
       <c r="D135">
         <v>22.779599999999999</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135" s="5">
         <v>65</v>
       </c>
       <c r="F135" s="1">
@@ -3172,7 +3169,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
+      <c r="A136" s="6">
         <v>44763.604166666657</v>
       </c>
       <c r="B136">
@@ -3184,7 +3181,7 @@
       <c r="D136">
         <v>22.779599999999999</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E136" s="5">
         <v>65</v>
       </c>
       <c r="F136" s="1">
@@ -3192,7 +3189,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
+      <c r="A137" s="6">
         <v>44763.625</v>
       </c>
       <c r="B137">
@@ -3204,7 +3201,7 @@
       <c r="D137">
         <v>23.890799999999999</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E137" s="5">
         <v>61</v>
       </c>
       <c r="F137" s="1">
@@ -3212,7 +3209,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+      <c r="A138" s="6">
         <v>44763.645833333343</v>
       </c>
       <c r="B138">
@@ -3224,7 +3221,7 @@
       <c r="D138">
         <v>22.224</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138" s="5">
         <v>69</v>
       </c>
       <c r="F138" s="1">
@@ -3232,7 +3229,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
+      <c r="A139" s="6">
         <v>44763.666666666657</v>
       </c>
       <c r="B139">
@@ -3244,7 +3241,7 @@
       <c r="D139">
         <v>21.1128</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139" s="5">
         <v>83</v>
       </c>
       <c r="F139" s="1">
@@ -3252,7 +3249,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+      <c r="A140" s="6">
         <v>44763.6875</v>
       </c>
       <c r="B140">
@@ -3264,7 +3261,7 @@
       <c r="D140">
         <v>21.1128</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140" s="5">
         <v>78</v>
       </c>
       <c r="F140" s="1">
@@ -3272,7 +3269,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
+      <c r="A141" s="6">
         <v>44763.708333333343</v>
       </c>
       <c r="B141">
@@ -3284,7 +3281,7 @@
       <c r="D141">
         <v>23.890799999999999</v>
       </c>
-      <c r="E141" s="7">
+      <c r="E141" s="5">
         <v>65</v>
       </c>
       <c r="F141" s="1">
@@ -3292,7 +3289,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
+      <c r="A142" s="6">
         <v>44763.729166666657</v>
       </c>
       <c r="B142">
@@ -3304,7 +3301,7 @@
       <c r="D142">
         <v>22.779599999999999</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142" s="5">
         <v>65</v>
       </c>
       <c r="F142" s="1">
@@ -3312,7 +3309,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
+      <c r="A143" s="6">
         <v>44763.75</v>
       </c>
       <c r="B143">
@@ -3324,7 +3321,7 @@
       <c r="D143">
         <v>22.779599999999999</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="5">
         <v>65</v>
       </c>
       <c r="F143" s="1">
@@ -3332,7 +3329,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
+      <c r="A144" s="6">
         <v>44763.770833333343</v>
       </c>
       <c r="B144">
@@ -3344,7 +3341,7 @@
       <c r="D144">
         <v>18.8904</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E144" s="5">
         <v>83</v>
       </c>
       <c r="F144" s="1">
@@ -3352,7 +3349,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
+      <c r="A145" s="6">
         <v>44763.791666666657</v>
       </c>
       <c r="B145">
@@ -3364,7 +3361,7 @@
       <c r="D145">
         <v>18.8904</v>
       </c>
-      <c r="E145" s="7">
+      <c r="E145" s="5">
         <v>88</v>
       </c>
       <c r="F145" s="1">
@@ -3372,7 +3369,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
+      <c r="A146" s="6">
         <v>44763.8125</v>
       </c>
       <c r="B146">
@@ -3384,7 +3381,7 @@
       <c r="D146">
         <v>20.0016</v>
       </c>
-      <c r="E146" s="7">
+      <c r="E146" s="5">
         <v>83</v>
       </c>
       <c r="F146" s="1">
@@ -3392,7 +3389,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
+      <c r="A147" s="6">
         <v>44763.833333333343</v>
       </c>
       <c r="B147">
@@ -3404,7 +3401,7 @@
       <c r="D147">
         <v>20.0016</v>
       </c>
-      <c r="E147" s="7">
+      <c r="E147" s="5">
         <v>83</v>
       </c>
       <c r="F147" s="1">
@@ -3412,7 +3409,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
+      <c r="A148" s="6">
         <v>44763.854166666657</v>
       </c>
       <c r="B148">
@@ -3424,7 +3421,7 @@
       <c r="D148">
         <v>20.0016</v>
       </c>
-      <c r="E148" s="7">
+      <c r="E148" s="5">
         <v>83</v>
       </c>
       <c r="F148" s="1">
@@ -3432,7 +3429,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
+      <c r="A149" s="6">
         <v>44763.875</v>
       </c>
       <c r="B149">
@@ -3444,7 +3441,7 @@
       <c r="D149">
         <v>20.0016</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E149" s="5">
         <v>88</v>
       </c>
       <c r="F149" s="1">
@@ -3452,7 +3449,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+      <c r="A150" s="6">
         <v>44763.895833333343</v>
       </c>
       <c r="B150">
@@ -3464,7 +3461,7 @@
       <c r="D150">
         <v>18.8904</v>
       </c>
-      <c r="E150" s="7">
+      <c r="E150" s="5">
         <v>94</v>
       </c>
       <c r="F150" s="1">
@@ -3472,7 +3469,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
+      <c r="A151" s="6">
         <v>44763.916666666657</v>
       </c>
       <c r="B151">
@@ -3484,7 +3481,7 @@
       <c r="D151">
         <v>18.8904</v>
       </c>
-      <c r="E151" s="7">
+      <c r="E151" s="5">
         <v>94</v>
       </c>
       <c r="F151" s="1">
@@ -3492,7 +3489,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
+      <c r="A152" s="6">
         <v>44763.9375</v>
       </c>
       <c r="B152">
@@ -3504,7 +3501,7 @@
       <c r="D152">
         <v>18.8904</v>
       </c>
-      <c r="E152" s="7">
+      <c r="E152" s="5">
         <v>94</v>
       </c>
       <c r="F152" s="1">
@@ -3512,7 +3509,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
+      <c r="A153" s="6">
         <v>44763.958333333343</v>
       </c>
       <c r="B153">
@@ -3524,7 +3521,7 @@
       <c r="D153">
         <v>18.8904</v>
       </c>
-      <c r="E153" s="7">
+      <c r="E153" s="5">
         <v>94</v>
       </c>
       <c r="F153" s="1">
@@ -3532,7 +3529,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
+      <c r="A154" s="6">
         <v>44763.979166666657</v>
       </c>
       <c r="B154">
@@ -3544,7 +3541,7 @@
       <c r="D154">
         <v>18.8904</v>
       </c>
-      <c r="E154" s="7">
+      <c r="E154" s="5">
         <v>94</v>
       </c>
       <c r="F154" s="1">
@@ -3552,7 +3549,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
+      <c r="A155" s="6">
         <v>44764</v>
       </c>
       <c r="B155">
@@ -3564,7 +3561,7 @@
       <c r="D155">
         <v>18.8904</v>
       </c>
-      <c r="E155" s="7">
+      <c r="E155" s="5">
         <v>88</v>
       </c>
       <c r="F155" s="1">
@@ -3572,7 +3569,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
+      <c r="A156" s="6">
         <v>44764.020833333343</v>
       </c>
       <c r="B156">
@@ -3584,7 +3581,7 @@
       <c r="D156">
         <v>17.779199999999999</v>
       </c>
-      <c r="E156" s="7">
+      <c r="E156" s="5">
         <v>94</v>
       </c>
       <c r="F156" s="1">
@@ -3592,7 +3589,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
+      <c r="A157" s="6">
         <v>44764.041666666657</v>
       </c>
       <c r="B157">
@@ -3604,7 +3601,7 @@
       <c r="D157">
         <v>17.223600000000001</v>
       </c>
-      <c r="E157" s="7">
+      <c r="E157" s="5">
         <v>94</v>
       </c>
       <c r="F157" s="1">
@@ -3612,7 +3609,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
+      <c r="A158" s="6">
         <v>44764.0625</v>
       </c>
       <c r="B158">
@@ -3624,7 +3621,7 @@
       <c r="D158">
         <v>17.223600000000001</v>
       </c>
-      <c r="E158" s="7">
+      <c r="E158" s="5">
         <v>94</v>
       </c>
       <c r="F158" s="1">
@@ -3632,7 +3629,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
+      <c r="A159" s="6">
         <v>44764.083333333343</v>
       </c>
       <c r="B159">
@@ -3644,7 +3641,7 @@
       <c r="D159">
         <v>16.112400000000001</v>
       </c>
-      <c r="E159" s="7">
+      <c r="E159" s="5">
         <v>94</v>
       </c>
       <c r="F159" s="1">
@@ -3652,7 +3649,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
+      <c r="A160" s="6">
         <v>44764.104166666657</v>
       </c>
       <c r="B160">
@@ -3664,7 +3661,7 @@
       <c r="D160">
         <v>16.112400000000001</v>
       </c>
-      <c r="E160" s="7">
+      <c r="E160" s="5">
         <v>94</v>
       </c>
       <c r="F160" s="1">
@@ -3672,7 +3669,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
+      <c r="A161" s="6">
         <v>44764.125</v>
       </c>
       <c r="B161">
@@ -3684,7 +3681,7 @@
       <c r="D161">
         <v>16.112400000000001</v>
       </c>
-      <c r="E161" s="7">
+      <c r="E161" s="5">
         <v>94</v>
       </c>
       <c r="F161" s="1">
@@ -3692,7 +3689,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+      <c r="A162" s="6">
         <v>44764.145833333343</v>
       </c>
       <c r="B162">
@@ -3704,7 +3701,7 @@
       <c r="D162">
         <v>16.112400000000001</v>
       </c>
-      <c r="E162" s="7">
+      <c r="E162" s="5">
         <v>88</v>
       </c>
       <c r="F162" s="1">
@@ -3712,7 +3709,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
+      <c r="A163" s="6">
         <v>44764.166666666657</v>
       </c>
       <c r="B163">
@@ -3724,7 +3721,7 @@
       <c r="D163">
         <v>15.001200000000001</v>
       </c>
-      <c r="E163" s="7">
+      <c r="E163" s="5">
         <v>94</v>
       </c>
       <c r="F163" s="1">
@@ -3732,7 +3729,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+      <c r="A164" s="6">
         <v>44764.1875</v>
       </c>
       <c r="B164">
@@ -3744,7 +3741,7 @@
       <c r="D164">
         <v>15.001200000000001</v>
       </c>
-      <c r="E164" s="7">
+      <c r="E164" s="5">
         <v>94</v>
       </c>
       <c r="F164" s="1">
@@ -3752,7 +3749,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
+      <c r="A165" s="6">
         <v>44764.208333333343</v>
       </c>
       <c r="B165">
@@ -3764,7 +3761,7 @@
       <c r="D165">
         <v>15.001200000000001</v>
       </c>
-      <c r="E165" s="7">
+      <c r="E165" s="5">
         <v>94</v>
       </c>
       <c r="F165" s="1">
@@ -3772,7 +3769,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
+      <c r="A166" s="6">
         <v>44764.229166666657</v>
       </c>
       <c r="B166">
@@ -3784,7 +3781,7 @@
       <c r="D166">
         <v>15.001200000000001</v>
       </c>
-      <c r="E166" s="7">
+      <c r="E166" s="5">
         <v>94</v>
       </c>
       <c r="F166" s="1">
@@ -3792,7 +3789,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
+      <c r="A167" s="6">
         <v>44764.25</v>
       </c>
       <c r="B167">
@@ -3804,7 +3801,7 @@
       <c r="D167">
         <v>15.001200000000001</v>
       </c>
-      <c r="E167" s="7">
+      <c r="E167" s="5">
         <v>94</v>
       </c>
       <c r="F167" s="1">
@@ -3812,7 +3809,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
+      <c r="A168" s="6">
         <v>44764.270833333343</v>
       </c>
       <c r="B168">
@@ -3824,7 +3821,7 @@
       <c r="D168">
         <v>15.001200000000001</v>
       </c>
-      <c r="E168" s="7">
+      <c r="E168" s="5">
         <v>94</v>
       </c>
       <c r="F168" s="1">
@@ -3832,7 +3829,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
+      <c r="A169" s="6">
         <v>44764.291666666657</v>
       </c>
       <c r="B169">
@@ -3844,7 +3841,7 @@
       <c r="D169">
         <v>15.001200000000001</v>
       </c>
-      <c r="E169" s="7">
+      <c r="E169" s="5">
         <v>94</v>
       </c>
       <c r="F169" s="1">
@@ -3852,7 +3849,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
+      <c r="A170" s="6">
         <v>44764.3125</v>
       </c>
       <c r="B170">
@@ -3864,7 +3861,7 @@
       <c r="D170">
         <v>15.001200000000001</v>
       </c>
-      <c r="E170" s="7">
+      <c r="E170" s="5">
         <v>94</v>
       </c>
       <c r="F170" s="1">
@@ -3872,7 +3869,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
+      <c r="A171" s="6">
         <v>44764.333333333343</v>
       </c>
       <c r="B171">
@@ -3884,7 +3881,7 @@
       <c r="D171">
         <v>16.112400000000001</v>
       </c>
-      <c r="E171" s="7">
+      <c r="E171" s="5">
         <v>88</v>
       </c>
       <c r="F171" s="1">
@@ -3892,7 +3889,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
+      <c r="A172" s="6">
         <v>44764.354166666657</v>
       </c>
       <c r="B172">
@@ -3904,7 +3901,7 @@
       <c r="D172">
         <v>16.112400000000001</v>
       </c>
-      <c r="E172" s="7">
+      <c r="E172" s="5">
         <v>88</v>
       </c>
       <c r="F172" s="1">
@@ -3912,7 +3909,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
+      <c r="A173" s="6">
         <v>44764.375</v>
       </c>
       <c r="B173">
@@ -3924,7 +3921,7 @@
       <c r="D173">
         <v>16.112400000000001</v>
       </c>
-      <c r="E173" s="7">
+      <c r="E173" s="5">
         <v>77</v>
       </c>
       <c r="F173" s="1">
@@ -3932,7 +3929,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
+      <c r="A174" s="6">
         <v>44764.395833333343</v>
       </c>
       <c r="B174">
@@ -3944,7 +3941,7 @@
       <c r="D174">
         <v>16.112400000000001</v>
       </c>
-      <c r="E174" s="7">
+      <c r="E174" s="5">
         <v>82</v>
       </c>
       <c r="F174" s="1">
@@ -3952,7 +3949,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="3">
+      <c r="A175" s="6">
         <v>44764.416666666657</v>
       </c>
       <c r="B175">
@@ -3964,7 +3961,7 @@
       <c r="D175">
         <v>16.112400000000001</v>
       </c>
-      <c r="E175" s="7">
+      <c r="E175" s="5">
         <v>72</v>
       </c>
       <c r="F175" s="1">
@@ -3972,7 +3969,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
+      <c r="A176" s="6">
         <v>44764.4375</v>
       </c>
       <c r="B176">
@@ -3984,7 +3981,7 @@
       <c r="D176">
         <v>17.223600000000001</v>
       </c>
-      <c r="E176" s="7">
+      <c r="E176" s="5">
         <v>63</v>
       </c>
       <c r="F176" s="1">
@@ -3992,7 +3989,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
+      <c r="A177" s="6">
         <v>44764.458333333343</v>
       </c>
       <c r="B177">
@@ -4004,7 +4001,7 @@
       <c r="D177">
         <v>17.223600000000001</v>
       </c>
-      <c r="E177" s="7">
+      <c r="E177" s="5">
         <v>63</v>
       </c>
       <c r="F177" s="1">
@@ -4012,7 +4009,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
+      <c r="A178" s="6">
         <v>44764.479166666657</v>
       </c>
       <c r="B178">
@@ -4024,7 +4021,7 @@
       <c r="D178">
         <v>17.223600000000001</v>
       </c>
-      <c r="E178" s="7">
+      <c r="E178" s="5">
         <v>68</v>
       </c>
       <c r="F178" s="1">
@@ -4032,7 +4029,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
+      <c r="A179" s="6">
         <v>44764.5</v>
       </c>
       <c r="B179">
@@ -4044,7 +4041,7 @@
       <c r="D179">
         <v>17.779199999999999</v>
       </c>
-      <c r="E179" s="7">
+      <c r="E179" s="5">
         <v>64</v>
       </c>
       <c r="F179" s="1">
@@ -4052,7 +4049,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
+      <c r="A180" s="6">
         <v>44764.520833333343</v>
       </c>
       <c r="B180">
@@ -4064,7 +4061,7 @@
       <c r="D180">
         <v>17.779199999999999</v>
       </c>
-      <c r="E180" s="7">
+      <c r="E180" s="5">
         <v>64</v>
       </c>
       <c r="F180" s="1">
@@ -4072,7 +4069,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="3">
+      <c r="A181" s="6">
         <v>44764.541666666657</v>
       </c>
       <c r="B181">
@@ -4084,7 +4081,7 @@
       <c r="D181">
         <v>17.779199999999999</v>
       </c>
-      <c r="E181" s="7">
+      <c r="E181" s="5">
         <v>64</v>
       </c>
       <c r="F181" s="1">
@@ -4092,7 +4089,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="3">
+      <c r="A182" s="6">
         <v>44764.5625</v>
       </c>
       <c r="B182">
@@ -4104,7 +4101,7 @@
       <c r="D182">
         <v>17.779199999999999</v>
       </c>
-      <c r="E182" s="7">
+      <c r="E182" s="5">
         <v>64</v>
       </c>
       <c r="F182" s="1">
@@ -4112,7 +4109,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="3">
+      <c r="A183" s="6">
         <v>44764.583333333343</v>
       </c>
       <c r="B183">
@@ -4124,7 +4121,7 @@
       <c r="D183">
         <v>18.8904</v>
       </c>
-      <c r="E183" s="7">
+      <c r="E183" s="5">
         <v>60</v>
       </c>
       <c r="F183" s="1">
@@ -4132,7 +4129,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="3">
+      <c r="A184" s="6">
         <v>44764.604166666657</v>
       </c>
       <c r="B184">
@@ -4144,7 +4141,7 @@
       <c r="D184">
         <v>17.779199999999999</v>
       </c>
-      <c r="E184" s="7">
+      <c r="E184" s="5">
         <v>68</v>
       </c>
       <c r="F184" s="1">
@@ -4152,7 +4149,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="3">
+      <c r="A185" s="6">
         <v>44764.625</v>
       </c>
       <c r="B185">
@@ -4164,7 +4161,7 @@
       <c r="D185">
         <v>18.8904</v>
       </c>
-      <c r="E185" s="7">
+      <c r="E185" s="5">
         <v>64</v>
       </c>
       <c r="F185" s="1">
@@ -4172,7 +4169,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="3">
+      <c r="A186" s="6">
         <v>44764.645833333343</v>
       </c>
       <c r="B186">
@@ -4184,7 +4181,7 @@
       <c r="D186">
         <v>18.8904</v>
       </c>
-      <c r="E186" s="7">
+      <c r="E186" s="5">
         <v>60</v>
       </c>
       <c r="F186" s="1">
@@ -4192,7 +4189,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="3">
+      <c r="A187" s="6">
         <v>44764.666666666657</v>
       </c>
       <c r="B187">
@@ -4204,7 +4201,7 @@
       <c r="D187">
         <v>18.8904</v>
       </c>
-      <c r="E187" s="7">
+      <c r="E187" s="5">
         <v>60</v>
       </c>
       <c r="F187" s="1">
@@ -4212,7 +4209,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="3">
+      <c r="A188" s="6">
         <v>44764.6875</v>
       </c>
       <c r="B188">
@@ -4224,7 +4221,7 @@
       <c r="D188">
         <v>18.8904</v>
       </c>
-      <c r="E188" s="7">
+      <c r="E188" s="5">
         <v>60</v>
       </c>
       <c r="F188" s="1">
@@ -4232,7 +4229,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
+      <c r="A189" s="6">
         <v>44764.708333333343</v>
       </c>
       <c r="B189">
@@ -4244,7 +4241,7 @@
       <c r="D189">
         <v>18.8904</v>
       </c>
-      <c r="E189" s="7">
+      <c r="E189" s="5">
         <v>60</v>
       </c>
       <c r="F189" s="1">
@@ -4252,7 +4249,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
+      <c r="A190" s="6">
         <v>44764.729166666657</v>
       </c>
       <c r="B190">
@@ -4264,7 +4261,7 @@
       <c r="D190">
         <v>18.8904</v>
       </c>
-      <c r="E190" s="7">
+      <c r="E190" s="5">
         <v>60</v>
       </c>
       <c r="F190" s="1">
@@ -4272,7 +4269,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="3">
+      <c r="A191" s="6">
         <v>44764.75</v>
       </c>
       <c r="B191">
@@ -4284,7 +4281,7 @@
       <c r="D191">
         <v>18.8904</v>
       </c>
-      <c r="E191" s="7">
+      <c r="E191" s="5">
         <v>64</v>
       </c>
       <c r="F191" s="1">
@@ -4292,7 +4289,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="3">
+      <c r="A192" s="6">
         <v>44764.770833333343</v>
       </c>
       <c r="B192">
@@ -4304,7 +4301,7 @@
       <c r="D192">
         <v>17.779199999999999</v>
       </c>
-      <c r="E192" s="7">
+      <c r="E192" s="5">
         <v>64</v>
       </c>
       <c r="F192" s="1">
@@ -4312,7 +4309,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
+      <c r="A193" s="6">
         <v>44764.791666666657</v>
       </c>
       <c r="B193">
@@ -4324,7 +4321,7 @@
       <c r="D193">
         <v>17.779199999999999</v>
       </c>
-      <c r="E193" s="7">
+      <c r="E193" s="5">
         <v>64</v>
       </c>
       <c r="F193" s="1">
@@ -4332,7 +4329,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
+      <c r="A194" s="6">
         <v>44764.8125</v>
       </c>
       <c r="B194">
@@ -4344,7 +4341,7 @@
       <c r="D194">
         <v>17.779199999999999</v>
       </c>
-      <c r="E194" s="7">
+      <c r="E194" s="5">
         <v>64</v>
       </c>
       <c r="F194" s="1">
@@ -4352,7 +4349,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="3">
+      <c r="A195" s="6">
         <v>44764.833333333343</v>
       </c>
       <c r="B195">
@@ -4364,7 +4361,7 @@
       <c r="D195">
         <v>17.779199999999999</v>
       </c>
-      <c r="E195" s="7">
+      <c r="E195" s="5">
         <v>64</v>
       </c>
       <c r="F195" s="1">
@@ -4372,7 +4369,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="3">
+      <c r="A196" s="6">
         <v>44764.854166666657</v>
       </c>
       <c r="B196">
@@ -4384,7 +4381,7 @@
       <c r="D196">
         <v>17.779199999999999</v>
       </c>
-      <c r="E196" s="7">
+      <c r="E196" s="5">
         <v>64</v>
       </c>
       <c r="F196" s="1">
@@ -4392,7 +4389,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="3">
+      <c r="A197" s="6">
         <v>44764.875</v>
       </c>
       <c r="B197">
@@ -4404,7 +4401,7 @@
       <c r="D197">
         <v>17.779199999999999</v>
       </c>
-      <c r="E197" s="7">
+      <c r="E197" s="5">
         <v>68</v>
       </c>
       <c r="F197" s="1">
@@ -4412,7 +4409,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="3">
+      <c r="A198" s="6">
         <v>44764.895833333343</v>
       </c>
       <c r="B198">
@@ -4424,7 +4421,7 @@
       <c r="D198">
         <v>17.223600000000001</v>
       </c>
-      <c r="E198" s="7">
+      <c r="E198" s="5">
         <v>72</v>
       </c>
       <c r="F198" s="1">
@@ -4432,7 +4429,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="3">
+      <c r="A199" s="6">
         <v>44764.916666666657</v>
       </c>
       <c r="B199">
@@ -4444,7 +4441,7 @@
       <c r="D199">
         <v>17.223600000000001</v>
       </c>
-      <c r="E199" s="7">
+      <c r="E199" s="5">
         <v>72</v>
       </c>
       <c r="F199" s="1">
@@ -4452,7 +4449,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="3">
+      <c r="A200" s="6">
         <v>44764.9375</v>
       </c>
       <c r="B200">
@@ -4464,7 +4461,7 @@
       <c r="D200">
         <v>17.223600000000001</v>
       </c>
-      <c r="E200" s="7">
+      <c r="E200" s="5">
         <v>72</v>
       </c>
       <c r="F200" s="1">
@@ -4472,7 +4469,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="3">
+      <c r="A201" s="6">
         <v>44764.958333333343</v>
       </c>
       <c r="B201">
@@ -4484,7 +4481,7 @@
       <c r="D201">
         <v>16.112400000000001</v>
       </c>
-      <c r="E201" s="7">
+      <c r="E201" s="5">
         <v>77</v>
       </c>
       <c r="F201" s="1">
@@ -4492,7 +4489,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
+      <c r="A202" s="6">
         <v>44764.979166666657</v>
       </c>
       <c r="B202">
@@ -4504,7 +4501,7 @@
       <c r="D202">
         <v>16.112400000000001</v>
       </c>
-      <c r="E202" s="7">
+      <c r="E202" s="5">
         <v>77</v>
       </c>
       <c r="F202" s="1">
@@ -4512,7 +4509,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="3">
+      <c r="A203" s="6">
         <v>44765</v>
       </c>
       <c r="B203">
@@ -4524,7 +4521,7 @@
       <c r="D203">
         <v>16.112400000000001</v>
       </c>
-      <c r="E203" s="7">
+      <c r="E203" s="5">
         <v>77</v>
       </c>
       <c r="F203" s="1">
@@ -4532,7 +4529,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="3">
+      <c r="A204" s="6">
         <v>44765.020833333343</v>
       </c>
       <c r="B204">
@@ -4544,7 +4541,7 @@
       <c r="D204">
         <v>15.001200000000001</v>
       </c>
-      <c r="E204" s="7">
+      <c r="E204" s="5">
         <v>82</v>
       </c>
       <c r="F204" s="1">
@@ -4552,7 +4549,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="3">
+      <c r="A205" s="6">
         <v>44765.041666666657</v>
       </c>
       <c r="B205">
@@ -4564,7 +4561,7 @@
       <c r="D205">
         <v>15.001200000000001</v>
       </c>
-      <c r="E205" s="7">
+      <c r="E205" s="5">
         <v>77</v>
       </c>
       <c r="F205" s="1">
@@ -4572,7 +4569,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="3">
+      <c r="A206" s="6">
         <v>44765.0625</v>
       </c>
       <c r="B206">
@@ -4584,7 +4581,7 @@
       <c r="D206">
         <v>13.89</v>
       </c>
-      <c r="E206" s="7">
+      <c r="E206" s="5">
         <v>88</v>
       </c>
       <c r="F206" s="1">
@@ -4592,7 +4589,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="3">
+      <c r="A207" s="6">
         <v>44765.083333333343</v>
       </c>
       <c r="B207">
@@ -4604,7 +4601,7 @@
       <c r="D207">
         <v>13.89</v>
       </c>
-      <c r="E207" s="7">
+      <c r="E207" s="5">
         <v>88</v>
       </c>
       <c r="F207" s="1">
@@ -4612,7 +4609,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="3">
+      <c r="A208" s="6">
         <v>44765.104166666657</v>
       </c>
       <c r="B208">
@@ -4624,7 +4621,7 @@
       <c r="D208">
         <v>13.89</v>
       </c>
-      <c r="E208" s="7">
+      <c r="E208" s="5">
         <v>88</v>
       </c>
       <c r="F208" s="1">
@@ -4632,7 +4629,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="3">
+      <c r="A209" s="6">
         <v>44765.125</v>
       </c>
       <c r="B209">
@@ -4644,7 +4641,7 @@
       <c r="D209">
         <v>12.2232</v>
       </c>
-      <c r="E209" s="7">
+      <c r="E209" s="5">
         <v>94</v>
       </c>
       <c r="F209" s="1">
@@ -4652,7 +4649,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="3">
+      <c r="A210" s="6">
         <v>44765.145833333343</v>
       </c>
       <c r="B210">
@@ -4664,7 +4661,7 @@
       <c r="D210">
         <v>12.2232</v>
       </c>
-      <c r="E210" s="7">
+      <c r="E210" s="5">
         <v>100</v>
       </c>
       <c r="F210" s="1">
@@ -4672,7 +4669,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="3">
+      <c r="A211" s="6">
         <v>44765.166666666657</v>
       </c>
       <c r="B211">
@@ -4684,7 +4681,7 @@
       <c r="D211">
         <v>12.2232</v>
       </c>
-      <c r="E211" s="7">
+      <c r="E211" s="5">
         <v>100</v>
       </c>
       <c r="F211" s="1">
@@ -4692,7 +4689,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="3">
+      <c r="A212" s="6">
         <v>44765.1875</v>
       </c>
       <c r="B212">
@@ -4704,7 +4701,7 @@
       <c r="D212">
         <v>12.7788</v>
       </c>
-      <c r="E212" s="7">
+      <c r="E212" s="5">
         <v>94</v>
       </c>
       <c r="F212" s="1">
@@ -4712,7 +4709,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="3">
+      <c r="A213" s="6">
         <v>44765.208333333343</v>
       </c>
       <c r="B213">
@@ -4724,7 +4721,7 @@
       <c r="D213">
         <v>12.7788</v>
       </c>
-      <c r="E213" s="7">
+      <c r="E213" s="5">
         <v>94</v>
       </c>
       <c r="F213" s="1">
@@ -4732,7 +4729,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="3">
+      <c r="A214" s="6">
         <v>44765.229166666657</v>
       </c>
       <c r="B214">
@@ -4744,7 +4741,7 @@
       <c r="D214">
         <v>12.7788</v>
       </c>
-      <c r="E214" s="7">
+      <c r="E214" s="5">
         <v>94</v>
       </c>
       <c r="F214" s="1">
@@ -4752,7 +4749,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="3">
+      <c r="A215" s="6">
         <v>44765.25</v>
       </c>
       <c r="B215">
@@ -4764,7 +4761,7 @@
       <c r="D215">
         <v>12.2232</v>
       </c>
-      <c r="E215" s="7">
+      <c r="E215" s="5">
         <v>100</v>
       </c>
       <c r="F215" s="1">
@@ -4772,7 +4769,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="3">
+      <c r="A216" s="6">
         <v>44765.270833333343</v>
       </c>
       <c r="B216">
@@ -4784,7 +4781,7 @@
       <c r="D216">
         <v>12.2232</v>
       </c>
-      <c r="E216" s="7">
+      <c r="E216" s="5">
         <v>100</v>
       </c>
       <c r="F216" s="1">
@@ -4792,7 +4789,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="3">
+      <c r="A217" s="6">
         <v>44765.291666666657</v>
       </c>
       <c r="B217">
@@ -4804,7 +4801,7 @@
       <c r="D217">
         <v>12.2232</v>
       </c>
-      <c r="E217" s="7">
+      <c r="E217" s="5">
         <v>94</v>
       </c>
       <c r="F217" s="1">
@@ -4812,7 +4809,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="3">
+      <c r="A218" s="6">
         <v>44765.3125</v>
       </c>
       <c r="B218">
@@ -4824,7 +4821,7 @@
       <c r="D218">
         <v>13.89</v>
       </c>
-      <c r="E218" s="7">
+      <c r="E218" s="5">
         <v>94</v>
       </c>
       <c r="F218" s="1">
@@ -4832,7 +4829,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="3">
+      <c r="A219" s="6">
         <v>44765.333333333343</v>
       </c>
       <c r="B219">
@@ -4844,7 +4841,7 @@
       <c r="D219">
         <v>15.001200000000001</v>
       </c>
-      <c r="E219" s="7">
+      <c r="E219" s="5">
         <v>82</v>
       </c>
       <c r="F219" s="1">
@@ -4852,7 +4849,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="3">
+      <c r="A220" s="6">
         <v>44765.354166666657</v>
       </c>
       <c r="B220">
@@ -4864,7 +4861,7 @@
       <c r="D220">
         <v>16.112400000000001</v>
       </c>
-      <c r="E220" s="7">
+      <c r="E220" s="5">
         <v>77</v>
       </c>
       <c r="F220" s="1">
@@ -4872,7 +4869,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="3">
+      <c r="A221" s="6">
         <v>44765.375</v>
       </c>
       <c r="B221">
@@ -4884,7 +4881,7 @@
       <c r="D221">
         <v>17.223600000000001</v>
       </c>
-      <c r="E221" s="7">
+      <c r="E221" s="5">
         <v>72</v>
       </c>
       <c r="F221" s="1">
@@ -4892,7 +4889,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="3">
+      <c r="A222" s="6">
         <v>44765.395833333343</v>
       </c>
       <c r="B222">
@@ -4904,7 +4901,7 @@
       <c r="D222">
         <v>17.223600000000001</v>
       </c>
-      <c r="E222" s="7">
+      <c r="E222" s="5">
         <v>68</v>
       </c>
       <c r="F222" s="1">
@@ -4912,7 +4909,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="3">
+      <c r="A223" s="6">
         <v>44765.416666666657</v>
       </c>
       <c r="B223">
@@ -4924,7 +4921,7 @@
       <c r="D223">
         <v>17.223600000000001</v>
       </c>
-      <c r="E223" s="7">
+      <c r="E223" s="5">
         <v>68</v>
       </c>
       <c r="F223" s="1">
@@ -4932,7 +4929,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="3">
+      <c r="A224" s="6">
         <v>44765.4375</v>
       </c>
       <c r="B224">
@@ -4944,7 +4941,7 @@
       <c r="D224">
         <v>17.779199999999999</v>
       </c>
-      <c r="E224" s="7">
+      <c r="E224" s="5">
         <v>64</v>
       </c>
       <c r="F224" s="1">
@@ -4952,7 +4949,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="3">
+      <c r="A225" s="6">
         <v>44765.458333333343</v>
       </c>
       <c r="B225">
@@ -4964,7 +4961,7 @@
       <c r="D225">
         <v>17.223600000000001</v>
       </c>
-      <c r="E225" s="7">
+      <c r="E225" s="5">
         <v>68</v>
       </c>
       <c r="F225" s="1">
@@ -4972,7 +4969,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="3">
+      <c r="A226" s="6">
         <v>44765.479166666657</v>
       </c>
       <c r="B226">
@@ -4984,7 +4981,7 @@
       <c r="D226">
         <v>17.779199999999999</v>
       </c>
-      <c r="E226" s="7">
+      <c r="E226" s="5">
         <v>64</v>
       </c>
       <c r="F226" s="1">
@@ -4992,7 +4989,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="3">
+      <c r="A227" s="6">
         <v>44765.5</v>
       </c>
       <c r="B227">
@@ -5004,7 +5001,7 @@
       <c r="D227">
         <v>18.8904</v>
       </c>
-      <c r="E227" s="7">
+      <c r="E227" s="5">
         <v>56</v>
       </c>
       <c r="F227" s="1">
@@ -5012,7 +5009,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="3">
+      <c r="A228" s="6">
         <v>44765.520833333343</v>
       </c>
       <c r="B228">
@@ -5024,7 +5021,7 @@
       <c r="D228">
         <v>20.0016</v>
       </c>
-      <c r="E228" s="7">
+      <c r="E228" s="5">
         <v>52</v>
       </c>
       <c r="F228" s="1">
@@ -5032,7 +5029,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="3">
+      <c r="A229" s="6">
         <v>44765.541666666657</v>
       </c>
       <c r="B229">
@@ -5044,7 +5041,7 @@
       <c r="D229">
         <v>21.1128</v>
       </c>
-      <c r="E229" s="7">
+      <c r="E229" s="5">
         <v>53</v>
       </c>
       <c r="F229" s="1">
@@ -5052,7 +5049,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="3">
+      <c r="A230" s="6">
         <v>44765.5625</v>
       </c>
       <c r="B230">
@@ -5064,7 +5061,7 @@
       <c r="D230">
         <v>20.0016</v>
       </c>
-      <c r="E230" s="7">
+      <c r="E230" s="5">
         <v>52</v>
       </c>
       <c r="F230" s="1">
@@ -5072,7 +5069,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="3">
+      <c r="A231" s="6">
         <v>44765.583333333343</v>
       </c>
       <c r="B231">
@@ -5084,7 +5081,7 @@
       <c r="D231">
         <v>18.8904</v>
       </c>
-      <c r="E231" s="7">
+      <c r="E231" s="5">
         <v>56</v>
       </c>
       <c r="F231" s="1">
@@ -5092,7 +5089,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="3">
+      <c r="A232" s="6">
         <v>44765.604166666657</v>
       </c>
       <c r="B232">
@@ -5104,7 +5101,7 @@
       <c r="D232">
         <v>20.0016</v>
       </c>
-      <c r="E232" s="7">
+      <c r="E232" s="5">
         <v>56</v>
       </c>
       <c r="F232" s="1">
@@ -5112,7 +5109,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="3">
+      <c r="A233" s="6">
         <v>44765.625</v>
       </c>
       <c r="B233">
@@ -5124,7 +5121,7 @@
       <c r="D233">
         <v>20.0016</v>
       </c>
-      <c r="E233" s="7">
+      <c r="E233" s="5">
         <v>52</v>
       </c>
       <c r="F233" s="1">
@@ -5132,7 +5129,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="3">
+      <c r="A234" s="6">
         <v>44765.645833333343</v>
       </c>
       <c r="B234">
@@ -5144,7 +5141,7 @@
       <c r="D234">
         <v>21.1128</v>
       </c>
-      <c r="E234" s="7">
+      <c r="E234" s="5">
         <v>46</v>
       </c>
       <c r="F234" s="1">
@@ -5152,7 +5149,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="3">
+      <c r="A235" s="6">
         <v>44765.666666666657</v>
       </c>
       <c r="B235">
@@ -5164,7 +5161,7 @@
       <c r="D235">
         <v>22.224</v>
       </c>
-      <c r="E235" s="7">
+      <c r="E235" s="5">
         <v>43</v>
       </c>
       <c r="F235" s="1">
@@ -5172,7 +5169,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="3">
+      <c r="A236" s="6">
         <v>44765.6875</v>
       </c>
       <c r="B236">
@@ -5184,7 +5181,7 @@
       <c r="D236">
         <v>21.1128</v>
       </c>
-      <c r="E236" s="7">
+      <c r="E236" s="5">
         <v>49</v>
       </c>
       <c r="F236" s="1">
@@ -5192,7 +5189,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="3">
+      <c r="A237" s="6">
         <v>44765.708333333343</v>
       </c>
       <c r="B237">
@@ -5204,7 +5201,7 @@
       <c r="D237">
         <v>22.224</v>
       </c>
-      <c r="E237" s="7">
+      <c r="E237" s="5">
         <v>46</v>
       </c>
       <c r="F237" s="1">
@@ -5212,7 +5209,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="3">
+      <c r="A238" s="6">
         <v>44765.729166666657</v>
       </c>
       <c r="B238">
@@ -5224,7 +5221,7 @@
       <c r="D238">
         <v>22.224</v>
       </c>
-      <c r="E238" s="7">
+      <c r="E238" s="5">
         <v>46</v>
       </c>
       <c r="F238" s="1">
@@ -5232,3661 +5229,3661 @@
       </c>
     </row>
     <row r="1115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1115" s="5"/>
+      <c r="B1115" s="3"/>
     </row>
     <row r="1116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1116" s="5"/>
+      <c r="B1116" s="3"/>
     </row>
     <row r="1117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1117" s="5"/>
+      <c r="B1117" s="3"/>
     </row>
     <row r="1118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1118" s="5"/>
+      <c r="B1118" s="3"/>
     </row>
     <row r="1119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1119" s="5"/>
+      <c r="B1119" s="3"/>
     </row>
     <row r="1120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1120" s="5"/>
+      <c r="B1120" s="3"/>
     </row>
     <row r="1121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1121" s="5"/>
+      <c r="B1121" s="3"/>
     </row>
     <row r="1122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1122" s="5"/>
+      <c r="B1122" s="3"/>
     </row>
     <row r="1123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1123" s="5"/>
+      <c r="B1123" s="3"/>
     </row>
     <row r="1124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1124" s="5"/>
+      <c r="B1124" s="3"/>
     </row>
     <row r="1125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1125" s="5"/>
+      <c r="B1125" s="3"/>
     </row>
     <row r="1126" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1126" s="5"/>
+      <c r="B1126" s="3"/>
     </row>
     <row r="1127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1127" s="5"/>
+      <c r="B1127" s="3"/>
     </row>
     <row r="1128" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1128" s="5"/>
+      <c r="B1128" s="3"/>
     </row>
     <row r="1129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1129" s="5"/>
+      <c r="B1129" s="3"/>
     </row>
     <row r="1130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1130" s="5"/>
+      <c r="B1130" s="3"/>
     </row>
     <row r="1131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1131" s="5"/>
+      <c r="B1131" s="3"/>
     </row>
     <row r="1132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1132" s="5"/>
+      <c r="B1132" s="3"/>
     </row>
     <row r="1133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1133" s="5"/>
+      <c r="B1133" s="3"/>
     </row>
     <row r="1134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1134" s="5"/>
+      <c r="B1134" s="3"/>
     </row>
     <row r="1135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1135" s="5"/>
+      <c r="B1135" s="3"/>
     </row>
     <row r="1136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1136" s="5"/>
+      <c r="B1136" s="3"/>
     </row>
     <row r="1137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1137" s="5"/>
+      <c r="B1137" s="3"/>
     </row>
     <row r="1138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1138" s="5"/>
+      <c r="B1138" s="3"/>
     </row>
     <row r="1139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1139" s="5"/>
+      <c r="B1139" s="3"/>
     </row>
     <row r="1140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1140" s="5"/>
+      <c r="B1140" s="3"/>
     </row>
     <row r="1141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1141" s="5"/>
+      <c r="B1141" s="3"/>
     </row>
     <row r="1142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1142" s="5"/>
+      <c r="B1142" s="3"/>
     </row>
     <row r="1143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1143" s="5"/>
+      <c r="B1143" s="3"/>
     </row>
     <row r="1144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1144" s="5"/>
+      <c r="B1144" s="3"/>
     </row>
     <row r="1145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1145" s="5"/>
+      <c r="B1145" s="3"/>
     </row>
     <row r="1146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1146" s="5"/>
+      <c r="B1146" s="3"/>
     </row>
     <row r="1147" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1147" s="5"/>
+      <c r="B1147" s="3"/>
     </row>
     <row r="1148" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1148" s="5"/>
+      <c r="B1148" s="3"/>
     </row>
     <row r="1149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1149" s="5"/>
+      <c r="B1149" s="3"/>
     </row>
     <row r="1150" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1150" s="5"/>
+      <c r="B1150" s="3"/>
     </row>
     <row r="1151" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1151" s="5"/>
+      <c r="B1151" s="3"/>
     </row>
     <row r="1152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1152" s="5"/>
+      <c r="B1152" s="3"/>
     </row>
     <row r="1153" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1153" s="5"/>
+      <c r="B1153" s="3"/>
     </row>
     <row r="1154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1154" s="5"/>
+      <c r="B1154" s="3"/>
     </row>
     <row r="1155" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1155" s="5"/>
+      <c r="B1155" s="3"/>
     </row>
     <row r="1156" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1156" s="5"/>
+      <c r="B1156" s="3"/>
     </row>
     <row r="1157" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1157" s="5"/>
+      <c r="B1157" s="3"/>
     </row>
     <row r="1158" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1158" s="5"/>
+      <c r="B1158" s="3"/>
     </row>
     <row r="1159" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1159" s="5"/>
+      <c r="B1159" s="3"/>
     </row>
     <row r="1160" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1160" s="5"/>
+      <c r="B1160" s="3"/>
     </row>
     <row r="1161" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1161" s="5"/>
+      <c r="B1161" s="3"/>
     </row>
     <row r="1162" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1162" s="5"/>
+      <c r="B1162" s="3"/>
     </row>
     <row r="1163" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1163" s="5"/>
+      <c r="B1163" s="3"/>
     </row>
     <row r="1164" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1164" s="5"/>
+      <c r="B1164" s="3"/>
     </row>
     <row r="1165" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1165" s="5"/>
+      <c r="B1165" s="3"/>
     </row>
     <row r="1166" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1166" s="5"/>
+      <c r="B1166" s="3"/>
     </row>
     <row r="1167" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1167" s="5"/>
+      <c r="B1167" s="3"/>
     </row>
     <row r="1168" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1168" s="5"/>
+      <c r="B1168" s="3"/>
     </row>
     <row r="1169" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1169" s="5"/>
+      <c r="B1169" s="3"/>
     </row>
     <row r="1170" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1170" s="5"/>
+      <c r="B1170" s="3"/>
     </row>
     <row r="1171" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1171" s="5"/>
+      <c r="B1171" s="3"/>
     </row>
     <row r="1172" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1172" s="5"/>
+      <c r="B1172" s="3"/>
     </row>
     <row r="1173" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1173" s="5"/>
+      <c r="B1173" s="3"/>
     </row>
     <row r="1174" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1174" s="5"/>
+      <c r="B1174" s="3"/>
     </row>
     <row r="1175" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1175" s="5"/>
+      <c r="B1175" s="3"/>
     </row>
     <row r="1176" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1176" s="5"/>
+      <c r="B1176" s="3"/>
     </row>
     <row r="1177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1177" s="5"/>
+      <c r="B1177" s="3"/>
     </row>
     <row r="1178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1178" s="5"/>
+      <c r="B1178" s="3"/>
     </row>
     <row r="1179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1179" s="5"/>
+      <c r="B1179" s="3"/>
     </row>
     <row r="1180" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1180" s="5"/>
+      <c r="B1180" s="3"/>
     </row>
     <row r="1181" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1181" s="5"/>
+      <c r="B1181" s="3"/>
     </row>
     <row r="1182" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1182" s="5"/>
+      <c r="B1182" s="3"/>
     </row>
     <row r="1183" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1183" s="5"/>
+      <c r="B1183" s="3"/>
     </row>
     <row r="1184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1184" s="5"/>
+      <c r="B1184" s="3"/>
     </row>
     <row r="1185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1185" s="5"/>
+      <c r="B1185" s="3"/>
     </row>
     <row r="1186" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1186" s="5"/>
+      <c r="B1186" s="3"/>
     </row>
     <row r="1187" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1187" s="5"/>
+      <c r="B1187" s="3"/>
     </row>
     <row r="1188" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1188" s="5"/>
+      <c r="B1188" s="3"/>
     </row>
     <row r="1189" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1189" s="5"/>
+      <c r="B1189" s="3"/>
     </row>
     <row r="1190" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1190" s="5"/>
+      <c r="B1190" s="3"/>
     </row>
     <row r="1191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1191" s="5"/>
+      <c r="B1191" s="3"/>
     </row>
     <row r="1192" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1192" s="5"/>
+      <c r="B1192" s="3"/>
     </row>
     <row r="1193" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1193" s="5"/>
+      <c r="B1193" s="3"/>
     </row>
     <row r="1194" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1194" s="5"/>
+      <c r="B1194" s="3"/>
     </row>
     <row r="1195" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1195" s="5"/>
+      <c r="B1195" s="3"/>
     </row>
     <row r="1196" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1196" s="5"/>
+      <c r="B1196" s="3"/>
     </row>
     <row r="1197" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1197" s="5"/>
+      <c r="B1197" s="3"/>
     </row>
     <row r="1198" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1198" s="5"/>
+      <c r="B1198" s="3"/>
     </row>
     <row r="1199" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1199" s="5"/>
+      <c r="B1199" s="3"/>
     </row>
     <row r="1200" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1200" s="5"/>
+      <c r="B1200" s="3"/>
     </row>
     <row r="1201" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1201" s="5"/>
+      <c r="B1201" s="3"/>
     </row>
     <row r="1202" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1202" s="5"/>
+      <c r="B1202" s="3"/>
     </row>
     <row r="1203" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1203" s="5"/>
+      <c r="B1203" s="3"/>
     </row>
     <row r="1204" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1204" s="5"/>
+      <c r="B1204" s="3"/>
     </row>
     <row r="1205" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1205" s="5"/>
+      <c r="B1205" s="3"/>
     </row>
     <row r="1206" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1206" s="5"/>
+      <c r="B1206" s="3"/>
     </row>
     <row r="1207" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1207" s="5"/>
+      <c r="B1207" s="3"/>
     </row>
     <row r="1208" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1208" s="5"/>
+      <c r="B1208" s="3"/>
     </row>
     <row r="1209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1209" s="5"/>
+      <c r="B1209" s="3"/>
     </row>
     <row r="1210" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1210" s="5"/>
+      <c r="B1210" s="3"/>
     </row>
     <row r="1211" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1211" s="5"/>
+      <c r="B1211" s="3"/>
     </row>
     <row r="1212" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1212" s="5"/>
+      <c r="B1212" s="3"/>
     </row>
     <row r="1213" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1213" s="5"/>
+      <c r="B1213" s="3"/>
     </row>
     <row r="1214" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1214" s="5"/>
+      <c r="B1214" s="3"/>
     </row>
     <row r="1215" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1215" s="5"/>
+      <c r="B1215" s="3"/>
     </row>
     <row r="1216" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1216" s="5"/>
+      <c r="B1216" s="3"/>
     </row>
     <row r="1217" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1217" s="5"/>
+      <c r="B1217" s="3"/>
     </row>
     <row r="1218" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1218" s="5"/>
+      <c r="B1218" s="3"/>
     </row>
     <row r="1219" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1219" s="5"/>
+      <c r="B1219" s="3"/>
     </row>
     <row r="1220" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1220" s="5"/>
+      <c r="B1220" s="3"/>
     </row>
     <row r="1221" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1221" s="5"/>
+      <c r="B1221" s="3"/>
     </row>
     <row r="1222" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1222" s="5"/>
+      <c r="B1222" s="3"/>
     </row>
     <row r="1223" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1223" s="5"/>
+      <c r="B1223" s="3"/>
     </row>
     <row r="1224" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1224" s="5"/>
+      <c r="B1224" s="3"/>
     </row>
     <row r="1225" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1225" s="5"/>
+      <c r="B1225" s="3"/>
     </row>
     <row r="1226" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1226" s="5"/>
+      <c r="B1226" s="3"/>
     </row>
     <row r="1227" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1227" s="5"/>
+      <c r="B1227" s="3"/>
     </row>
     <row r="1228" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1228" s="5"/>
+      <c r="B1228" s="3"/>
     </row>
     <row r="1229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1229" s="5"/>
+      <c r="B1229" s="3"/>
     </row>
     <row r="1230" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1230" s="5"/>
+      <c r="B1230" s="3"/>
     </row>
     <row r="1231" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1231" s="5"/>
+      <c r="B1231" s="3"/>
     </row>
     <row r="1232" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1232" s="5"/>
+      <c r="B1232" s="3"/>
     </row>
     <row r="1233" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1233" s="5"/>
+      <c r="B1233" s="3"/>
     </row>
     <row r="1234" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1234" s="5"/>
+      <c r="B1234" s="3"/>
     </row>
     <row r="1235" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1235" s="5"/>
+      <c r="B1235" s="3"/>
     </row>
     <row r="1236" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1236" s="5"/>
+      <c r="B1236" s="3"/>
     </row>
     <row r="1237" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1237" s="5"/>
+      <c r="B1237" s="3"/>
     </row>
     <row r="1238" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1238" s="5"/>
+      <c r="B1238" s="3"/>
     </row>
     <row r="1239" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1239" s="5"/>
+      <c r="B1239" s="3"/>
     </row>
     <row r="1240" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1240" s="5"/>
+      <c r="B1240" s="3"/>
     </row>
     <row r="1241" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1241" s="5"/>
+      <c r="B1241" s="3"/>
     </row>
     <row r="1242" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1242" s="5"/>
+      <c r="B1242" s="3"/>
     </row>
     <row r="1243" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1243" s="5"/>
+      <c r="B1243" s="3"/>
     </row>
     <row r="1244" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1244" s="5"/>
+      <c r="B1244" s="3"/>
     </row>
     <row r="1245" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1245" s="5"/>
+      <c r="B1245" s="3"/>
     </row>
     <row r="1246" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1246" s="5"/>
+      <c r="B1246" s="3"/>
     </row>
     <row r="1247" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1247" s="5"/>
+      <c r="B1247" s="3"/>
     </row>
     <row r="1248" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1248" s="5"/>
+      <c r="B1248" s="3"/>
     </row>
     <row r="1249" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1249" s="5"/>
+      <c r="B1249" s="3"/>
     </row>
     <row r="1250" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1250" s="5"/>
+      <c r="B1250" s="3"/>
     </row>
     <row r="1251" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1251" s="5"/>
+      <c r="B1251" s="3"/>
     </row>
     <row r="1252" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1252" s="5"/>
+      <c r="B1252" s="3"/>
     </row>
     <row r="1253" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1253" s="5"/>
+      <c r="B1253" s="3"/>
     </row>
     <row r="1254" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1254" s="5"/>
+      <c r="B1254" s="3"/>
     </row>
     <row r="1255" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1255" s="5"/>
+      <c r="B1255" s="3"/>
     </row>
     <row r="1256" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1256" s="5"/>
+      <c r="B1256" s="3"/>
     </row>
     <row r="1257" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1257" s="5"/>
+      <c r="B1257" s="3"/>
     </row>
     <row r="1258" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1258" s="5"/>
+      <c r="B1258" s="3"/>
     </row>
     <row r="1259" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1259" s="5"/>
+      <c r="B1259" s="3"/>
     </row>
     <row r="1260" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1260" s="5"/>
+      <c r="B1260" s="3"/>
     </row>
     <row r="1261" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1261" s="5"/>
+      <c r="B1261" s="3"/>
     </row>
     <row r="1262" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1262" s="5"/>
+      <c r="B1262" s="3"/>
     </row>
     <row r="1263" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1263" s="5"/>
+      <c r="B1263" s="3"/>
     </row>
     <row r="1264" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1264" s="5"/>
+      <c r="B1264" s="3"/>
     </row>
     <row r="1265" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1265" s="5"/>
+      <c r="B1265" s="3"/>
     </row>
     <row r="1266" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1266" s="5"/>
+      <c r="B1266" s="3"/>
     </row>
     <row r="1267" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1267" s="5"/>
+      <c r="B1267" s="3"/>
     </row>
     <row r="1268" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1268" s="5"/>
+      <c r="B1268" s="3"/>
     </row>
     <row r="1269" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1269" s="5"/>
+      <c r="B1269" s="3"/>
     </row>
     <row r="1270" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1270" s="5"/>
+      <c r="B1270" s="3"/>
     </row>
     <row r="1271" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1271" s="5"/>
+      <c r="B1271" s="3"/>
     </row>
     <row r="1272" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1272" s="5"/>
+      <c r="B1272" s="3"/>
     </row>
     <row r="1273" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1273" s="5"/>
+      <c r="B1273" s="3"/>
     </row>
     <row r="1274" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1274" s="5"/>
+      <c r="B1274" s="3"/>
     </row>
     <row r="1275" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1275" s="5"/>
+      <c r="B1275" s="3"/>
     </row>
     <row r="1276" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1276" s="5"/>
+      <c r="B1276" s="3"/>
     </row>
     <row r="1277" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1277" s="5"/>
+      <c r="B1277" s="3"/>
     </row>
     <row r="1278" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1278" s="5"/>
+      <c r="B1278" s="3"/>
     </row>
     <row r="1279" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1279" s="5"/>
+      <c r="B1279" s="3"/>
     </row>
     <row r="1280" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1280" s="5"/>
+      <c r="B1280" s="3"/>
     </row>
     <row r="1281" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1281" s="5"/>
+      <c r="B1281" s="3"/>
     </row>
     <row r="1282" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1282" s="5"/>
+      <c r="B1282" s="3"/>
     </row>
     <row r="1283" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1283" s="5"/>
+      <c r="B1283" s="3"/>
     </row>
     <row r="1284" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1284" s="5"/>
+      <c r="B1284" s="3"/>
     </row>
     <row r="1285" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1285" s="5"/>
+      <c r="B1285" s="3"/>
     </row>
     <row r="1286" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1286" s="5"/>
+      <c r="B1286" s="3"/>
     </row>
     <row r="1287" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1287" s="5"/>
+      <c r="B1287" s="3"/>
     </row>
     <row r="1288" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1288" s="5"/>
+      <c r="B1288" s="3"/>
     </row>
     <row r="1289" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1289" s="5"/>
+      <c r="B1289" s="3"/>
     </row>
     <row r="1290" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1290" s="5"/>
+      <c r="B1290" s="3"/>
     </row>
     <row r="1291" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1291" s="5"/>
+      <c r="B1291" s="3"/>
     </row>
     <row r="1292" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1292" s="5"/>
+      <c r="B1292" s="3"/>
     </row>
     <row r="1293" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1293" s="5"/>
+      <c r="B1293" s="3"/>
     </row>
     <row r="1294" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1294" s="5"/>
+      <c r="B1294" s="3"/>
     </row>
     <row r="1295" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1295" s="5"/>
+      <c r="B1295" s="3"/>
     </row>
     <row r="1296" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1296" s="5"/>
+      <c r="B1296" s="3"/>
     </row>
     <row r="1297" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1297" s="5"/>
+      <c r="B1297" s="3"/>
     </row>
     <row r="1298" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1298" s="5"/>
+      <c r="B1298" s="3"/>
     </row>
     <row r="1299" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1299" s="5"/>
+      <c r="B1299" s="3"/>
     </row>
     <row r="1300" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1300" s="5"/>
+      <c r="B1300" s="3"/>
     </row>
     <row r="1301" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1301" s="5"/>
+      <c r="B1301" s="3"/>
     </row>
     <row r="1302" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1302" s="5"/>
+      <c r="B1302" s="3"/>
     </row>
     <row r="1303" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1303" s="5"/>
+      <c r="B1303" s="3"/>
     </row>
     <row r="1304" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1304" s="5"/>
+      <c r="B1304" s="3"/>
     </row>
     <row r="1305" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1305" s="5"/>
+      <c r="B1305" s="3"/>
     </row>
     <row r="1306" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1306" s="5"/>
+      <c r="B1306" s="3"/>
     </row>
     <row r="1307" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1307" s="5"/>
+      <c r="B1307" s="3"/>
     </row>
     <row r="1308" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1308" s="5"/>
+      <c r="B1308" s="3"/>
     </row>
     <row r="1309" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1309" s="5"/>
+      <c r="B1309" s="3"/>
     </row>
     <row r="1310" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1310" s="5"/>
+      <c r="B1310" s="3"/>
     </row>
     <row r="1311" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1311" s="5"/>
+      <c r="B1311" s="3"/>
     </row>
     <row r="1312" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1312" s="5"/>
+      <c r="B1312" s="3"/>
     </row>
     <row r="1313" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1313" s="5"/>
+      <c r="B1313" s="3"/>
     </row>
     <row r="1314" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1314" s="5"/>
+      <c r="B1314" s="3"/>
     </row>
     <row r="1315" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1315" s="5"/>
+      <c r="B1315" s="3"/>
     </row>
     <row r="1316" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1316" s="5"/>
+      <c r="B1316" s="3"/>
     </row>
     <row r="1317" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1317" s="5"/>
+      <c r="B1317" s="3"/>
     </row>
     <row r="1318" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1318" s="5"/>
+      <c r="B1318" s="3"/>
     </row>
     <row r="1319" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1319" s="5"/>
+      <c r="B1319" s="3"/>
     </row>
     <row r="1320" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1320" s="5"/>
+      <c r="B1320" s="3"/>
     </row>
     <row r="1321" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1321" s="5"/>
+      <c r="B1321" s="3"/>
     </row>
     <row r="1322" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1322" s="5"/>
+      <c r="B1322" s="3"/>
     </row>
     <row r="1323" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1323" s="5"/>
+      <c r="B1323" s="3"/>
     </row>
     <row r="1324" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1324" s="5"/>
+      <c r="B1324" s="3"/>
     </row>
     <row r="1325" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1325" s="5"/>
+      <c r="B1325" s="3"/>
     </row>
     <row r="1326" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1326" s="5"/>
+      <c r="B1326" s="3"/>
     </row>
     <row r="1327" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1327" s="5"/>
+      <c r="B1327" s="3"/>
     </row>
     <row r="1328" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1328" s="5"/>
+      <c r="B1328" s="3"/>
     </row>
     <row r="1329" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1329" s="5"/>
+      <c r="B1329" s="3"/>
     </row>
     <row r="1330" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1330" s="5"/>
+      <c r="B1330" s="3"/>
     </row>
     <row r="1331" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1331" s="5"/>
+      <c r="B1331" s="3"/>
     </row>
     <row r="1332" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1332" s="5"/>
+      <c r="B1332" s="3"/>
     </row>
     <row r="1333" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1333" s="5"/>
+      <c r="B1333" s="3"/>
     </row>
     <row r="1334" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1334" s="5"/>
+      <c r="B1334" s="3"/>
     </row>
     <row r="1335" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1335" s="5"/>
+      <c r="B1335" s="3"/>
     </row>
     <row r="1336" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1336" s="5"/>
+      <c r="B1336" s="3"/>
     </row>
     <row r="1337" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1337" s="5"/>
+      <c r="B1337" s="3"/>
     </row>
     <row r="1338" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1338" s="5"/>
+      <c r="B1338" s="3"/>
     </row>
     <row r="1339" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1339" s="5"/>
+      <c r="B1339" s="3"/>
     </row>
     <row r="1340" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1340" s="5"/>
+      <c r="B1340" s="3"/>
     </row>
     <row r="1341" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1341" s="5"/>
+      <c r="B1341" s="3"/>
     </row>
     <row r="1342" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1342" s="5"/>
+      <c r="B1342" s="3"/>
     </row>
     <row r="1343" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1343" s="5"/>
+      <c r="B1343" s="3"/>
     </row>
     <row r="1344" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1344" s="5"/>
+      <c r="B1344" s="3"/>
     </row>
     <row r="1345" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1345" s="5"/>
+      <c r="B1345" s="3"/>
     </row>
     <row r="1346" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1346" s="5"/>
+      <c r="B1346" s="3"/>
     </row>
     <row r="1347" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1347" s="5"/>
+      <c r="B1347" s="3"/>
     </row>
     <row r="1348" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1348" s="5"/>
+      <c r="B1348" s="3"/>
     </row>
     <row r="1349" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1349" s="5"/>
+      <c r="B1349" s="3"/>
     </row>
     <row r="1350" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1350" s="5"/>
+      <c r="B1350" s="3"/>
     </row>
     <row r="1351" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1351" s="5"/>
+      <c r="B1351" s="3"/>
     </row>
     <row r="1352" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1352" s="5"/>
+      <c r="B1352" s="3"/>
     </row>
     <row r="1353" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1353" s="5"/>
+      <c r="B1353" s="3"/>
     </row>
     <row r="1354" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1354" s="5"/>
+      <c r="B1354" s="3"/>
     </row>
     <row r="1355" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1355" s="5"/>
+      <c r="B1355" s="3"/>
     </row>
     <row r="1356" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1356" s="5"/>
+      <c r="B1356" s="3"/>
     </row>
     <row r="1357" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1357" s="5"/>
+      <c r="B1357" s="3"/>
     </row>
     <row r="1358" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1358" s="5"/>
+      <c r="B1358" s="3"/>
     </row>
     <row r="1359" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1359" s="5"/>
+      <c r="B1359" s="3"/>
     </row>
     <row r="1360" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1360" s="5"/>
+      <c r="B1360" s="3"/>
     </row>
     <row r="1361" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1361" s="5"/>
+      <c r="B1361" s="3"/>
     </row>
     <row r="1362" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1362" s="5"/>
+      <c r="B1362" s="3"/>
     </row>
     <row r="1363" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1363" s="5"/>
+      <c r="B1363" s="3"/>
     </row>
     <row r="1364" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1364" s="5"/>
+      <c r="B1364" s="3"/>
     </row>
     <row r="1365" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1365" s="5"/>
+      <c r="B1365" s="3"/>
     </row>
     <row r="1366" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1366" s="5"/>
+      <c r="B1366" s="3"/>
     </row>
     <row r="1367" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1367" s="5"/>
+      <c r="B1367" s="3"/>
     </row>
     <row r="1368" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1368" s="5"/>
+      <c r="B1368" s="3"/>
     </row>
     <row r="1369" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1369" s="5"/>
+      <c r="B1369" s="3"/>
     </row>
     <row r="1370" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1370" s="5"/>
+      <c r="B1370" s="3"/>
     </row>
     <row r="1371" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1371" s="5"/>
+      <c r="B1371" s="3"/>
     </row>
     <row r="1372" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1372" s="5"/>
+      <c r="B1372" s="3"/>
     </row>
     <row r="1373" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1373" s="5"/>
+      <c r="B1373" s="3"/>
     </row>
     <row r="1374" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1374" s="5"/>
+      <c r="B1374" s="3"/>
     </row>
     <row r="1375" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1375" s="5"/>
+      <c r="B1375" s="3"/>
     </row>
     <row r="1376" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1376" s="5"/>
+      <c r="B1376" s="3"/>
     </row>
     <row r="1377" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1377" s="5"/>
+      <c r="B1377" s="3"/>
     </row>
     <row r="1378" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1378" s="5"/>
+      <c r="B1378" s="3"/>
     </row>
     <row r="1379" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1379" s="5"/>
+      <c r="B1379" s="3"/>
     </row>
     <row r="1380" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1380" s="5"/>
+      <c r="B1380" s="3"/>
     </row>
     <row r="1381" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1381" s="5"/>
+      <c r="B1381" s="3"/>
     </row>
     <row r="1382" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1382" s="5"/>
+      <c r="B1382" s="3"/>
     </row>
     <row r="1383" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1383" s="5"/>
+      <c r="B1383" s="3"/>
     </row>
     <row r="1384" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1384" s="5"/>
+      <c r="B1384" s="3"/>
     </row>
     <row r="1385" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1385" s="5"/>
+      <c r="B1385" s="3"/>
     </row>
     <row r="1386" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1386" s="5"/>
+      <c r="B1386" s="3"/>
     </row>
     <row r="1387" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1387" s="5"/>
+      <c r="B1387" s="3"/>
     </row>
     <row r="1388" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1388" s="5"/>
+      <c r="B1388" s="3"/>
     </row>
     <row r="1389" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1389" s="5"/>
+      <c r="B1389" s="3"/>
     </row>
     <row r="1390" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1390" s="5"/>
+      <c r="B1390" s="3"/>
     </row>
     <row r="1391" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1391" s="5"/>
+      <c r="B1391" s="3"/>
     </row>
     <row r="1392" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1392" s="5"/>
+      <c r="B1392" s="3"/>
     </row>
     <row r="1393" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1393" s="5"/>
+      <c r="B1393" s="3"/>
     </row>
     <row r="1394" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1394" s="5"/>
+      <c r="B1394" s="3"/>
     </row>
     <row r="1395" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1395" s="5"/>
+      <c r="B1395" s="3"/>
     </row>
     <row r="1396" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1396" s="5"/>
+      <c r="B1396" s="3"/>
     </row>
     <row r="1397" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1397" s="5"/>
+      <c r="B1397" s="3"/>
     </row>
     <row r="1398" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1398" s="5"/>
+      <c r="B1398" s="3"/>
     </row>
     <row r="1399" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1399" s="5"/>
+      <c r="B1399" s="3"/>
     </row>
     <row r="1400" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1400" s="5"/>
+      <c r="B1400" s="3"/>
     </row>
     <row r="1401" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1401" s="5"/>
+      <c r="B1401" s="3"/>
     </row>
     <row r="1402" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1402" s="5"/>
+      <c r="B1402" s="3"/>
     </row>
     <row r="1403" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1403" s="5"/>
+      <c r="B1403" s="3"/>
     </row>
     <row r="1404" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1404" s="5"/>
+      <c r="B1404" s="3"/>
     </row>
     <row r="1405" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1405" s="5"/>
+      <c r="B1405" s="3"/>
     </row>
     <row r="1406" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1406" s="5"/>
+      <c r="B1406" s="3"/>
     </row>
     <row r="1407" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1407" s="5"/>
+      <c r="B1407" s="3"/>
     </row>
     <row r="1408" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1408" s="5"/>
+      <c r="B1408" s="3"/>
     </row>
     <row r="1409" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1409" s="5"/>
+      <c r="B1409" s="3"/>
     </row>
     <row r="1410" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1410" s="5"/>
+      <c r="B1410" s="3"/>
     </row>
     <row r="1411" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1411" s="5"/>
+      <c r="B1411" s="3"/>
     </row>
     <row r="1412" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1412" s="5"/>
+      <c r="B1412" s="3"/>
     </row>
     <row r="1413" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1413" s="5"/>
+      <c r="B1413" s="3"/>
     </row>
     <row r="1414" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1414" s="5"/>
+      <c r="B1414" s="3"/>
     </row>
     <row r="1415" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1415" s="5"/>
+      <c r="B1415" s="3"/>
     </row>
     <row r="1416" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1416" s="5"/>
+      <c r="B1416" s="3"/>
     </row>
     <row r="1417" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1417" s="5"/>
+      <c r="B1417" s="3"/>
     </row>
     <row r="1418" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1418" s="5"/>
+      <c r="B1418" s="3"/>
     </row>
     <row r="1419" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1419" s="5"/>
+      <c r="B1419" s="3"/>
     </row>
     <row r="1420" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1420" s="5"/>
+      <c r="B1420" s="3"/>
     </row>
     <row r="1421" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1421" s="5"/>
+      <c r="B1421" s="3"/>
     </row>
     <row r="1422" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1422" s="5"/>
+      <c r="B1422" s="3"/>
     </row>
     <row r="1423" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1423" s="5"/>
+      <c r="B1423" s="3"/>
     </row>
     <row r="1424" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1424" s="5"/>
+      <c r="B1424" s="3"/>
     </row>
     <row r="1425" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1425" s="5"/>
+      <c r="B1425" s="3"/>
     </row>
     <row r="1426" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1426" s="5"/>
+      <c r="B1426" s="3"/>
     </row>
     <row r="1427" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1427" s="5"/>
+      <c r="B1427" s="3"/>
     </row>
     <row r="1428" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1428" s="5"/>
+      <c r="B1428" s="3"/>
     </row>
     <row r="1429" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1429" s="5"/>
+      <c r="B1429" s="3"/>
     </row>
     <row r="1430" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1430" s="5"/>
+      <c r="B1430" s="3"/>
     </row>
     <row r="1431" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1431" s="5"/>
+      <c r="B1431" s="3"/>
     </row>
     <row r="1432" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1432" s="5"/>
+      <c r="B1432" s="3"/>
     </row>
     <row r="1433" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1433" s="5"/>
+      <c r="B1433" s="3"/>
     </row>
     <row r="1434" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1434" s="5"/>
+      <c r="B1434" s="3"/>
     </row>
     <row r="1435" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1435" s="5"/>
+      <c r="B1435" s="3"/>
     </row>
     <row r="1436" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1436" s="5"/>
+      <c r="B1436" s="3"/>
     </row>
     <row r="1437" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1437" s="5"/>
+      <c r="B1437" s="3"/>
     </row>
     <row r="1438" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1438" s="5"/>
+      <c r="B1438" s="3"/>
     </row>
     <row r="1439" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1439" s="5"/>
+      <c r="B1439" s="3"/>
     </row>
     <row r="1440" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1440" s="5"/>
+      <c r="B1440" s="3"/>
     </row>
     <row r="1441" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1441" s="5"/>
+      <c r="B1441" s="3"/>
     </row>
     <row r="1442" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1442" s="5"/>
+      <c r="B1442" s="3"/>
     </row>
     <row r="1443" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1443" s="5"/>
+      <c r="B1443" s="3"/>
     </row>
     <row r="1444" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1444" s="5"/>
+      <c r="B1444" s="3"/>
     </row>
     <row r="1445" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1445" s="5"/>
+      <c r="B1445" s="3"/>
     </row>
     <row r="1446" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1446" s="5"/>
+      <c r="B1446" s="3"/>
     </row>
     <row r="1447" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1447" s="5"/>
+      <c r="B1447" s="3"/>
     </row>
     <row r="1448" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1448" s="5"/>
+      <c r="B1448" s="3"/>
     </row>
     <row r="1449" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1449" s="5"/>
+      <c r="B1449" s="3"/>
     </row>
     <row r="1450" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1450" s="5"/>
+      <c r="B1450" s="3"/>
     </row>
     <row r="1451" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1451" s="5"/>
+      <c r="B1451" s="3"/>
     </row>
     <row r="1452" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1452" s="5"/>
+      <c r="B1452" s="3"/>
     </row>
     <row r="1453" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1453" s="5"/>
+      <c r="B1453" s="3"/>
     </row>
     <row r="1454" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1454" s="5"/>
+      <c r="B1454" s="3"/>
     </row>
     <row r="1455" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1455" s="5"/>
+      <c r="B1455" s="3"/>
     </row>
     <row r="1456" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1456" s="5"/>
+      <c r="B1456" s="3"/>
     </row>
     <row r="1457" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1457" s="5"/>
+      <c r="B1457" s="3"/>
     </row>
     <row r="1458" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1458" s="5"/>
+      <c r="B1458" s="3"/>
     </row>
     <row r="1459" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1459" s="5"/>
+      <c r="B1459" s="3"/>
     </row>
     <row r="1460" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1460" s="5"/>
+      <c r="B1460" s="3"/>
     </row>
     <row r="1461" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1461" s="5"/>
+      <c r="B1461" s="3"/>
     </row>
     <row r="1462" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1462" s="5"/>
+      <c r="B1462" s="3"/>
     </row>
     <row r="1463" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1463" s="5"/>
+      <c r="B1463" s="3"/>
     </row>
     <row r="1464" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1464" s="5"/>
+      <c r="B1464" s="3"/>
     </row>
     <row r="1465" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1465" s="5"/>
+      <c r="B1465" s="3"/>
     </row>
     <row r="1466" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1466" s="5"/>
+      <c r="B1466" s="3"/>
     </row>
     <row r="1467" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1467" s="5"/>
+      <c r="B1467" s="3"/>
     </row>
     <row r="1468" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1468" s="5"/>
+      <c r="B1468" s="3"/>
     </row>
     <row r="1469" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1469" s="5"/>
+      <c r="B1469" s="3"/>
     </row>
     <row r="1470" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1470" s="5"/>
+      <c r="B1470" s="3"/>
     </row>
     <row r="1471" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1471" s="5"/>
+      <c r="B1471" s="3"/>
     </row>
     <row r="1472" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1472" s="5"/>
+      <c r="B1472" s="3"/>
     </row>
     <row r="1473" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1473" s="5"/>
+      <c r="B1473" s="3"/>
     </row>
     <row r="1474" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1474" s="5"/>
+      <c r="B1474" s="3"/>
     </row>
     <row r="1475" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1475" s="5"/>
+      <c r="B1475" s="3"/>
     </row>
     <row r="1476" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1476" s="5"/>
+      <c r="B1476" s="3"/>
     </row>
     <row r="1477" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1477" s="5"/>
+      <c r="B1477" s="3"/>
     </row>
     <row r="1478" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1478" s="5"/>
+      <c r="B1478" s="3"/>
     </row>
     <row r="1479" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1479" s="5"/>
+      <c r="B1479" s="3"/>
     </row>
     <row r="1480" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1480" s="5"/>
+      <c r="B1480" s="3"/>
     </row>
     <row r="1481" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1481" s="5"/>
+      <c r="B1481" s="3"/>
     </row>
     <row r="1482" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1482" s="5"/>
+      <c r="B1482" s="3"/>
     </row>
     <row r="1483" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1483" s="5"/>
+      <c r="B1483" s="3"/>
     </row>
     <row r="1484" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1484" s="5"/>
+      <c r="B1484" s="3"/>
     </row>
     <row r="1485" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1485" s="5"/>
+      <c r="B1485" s="3"/>
     </row>
     <row r="1486" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1486" s="5"/>
+      <c r="B1486" s="3"/>
     </row>
     <row r="1487" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1487" s="5"/>
+      <c r="B1487" s="3"/>
     </row>
     <row r="1488" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1488" s="5"/>
+      <c r="B1488" s="3"/>
     </row>
     <row r="1489" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1489" s="5"/>
+      <c r="B1489" s="3"/>
     </row>
     <row r="1490" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1490" s="5"/>
+      <c r="B1490" s="3"/>
     </row>
     <row r="1491" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1491" s="5"/>
+      <c r="B1491" s="3"/>
     </row>
     <row r="1492" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1492" s="5"/>
+      <c r="B1492" s="3"/>
     </row>
     <row r="1493" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1493" s="5"/>
+      <c r="B1493" s="3"/>
     </row>
     <row r="1494" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1494" s="5"/>
+      <c r="B1494" s="3"/>
     </row>
     <row r="1495" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1495" s="5"/>
+      <c r="B1495" s="3"/>
     </row>
     <row r="1496" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1496" s="5"/>
+      <c r="B1496" s="3"/>
     </row>
     <row r="1497" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1497" s="5"/>
+      <c r="B1497" s="3"/>
     </row>
     <row r="1498" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1498" s="5"/>
+      <c r="B1498" s="3"/>
     </row>
     <row r="1499" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1499" s="5"/>
+      <c r="B1499" s="3"/>
     </row>
     <row r="1500" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1500" s="5"/>
+      <c r="B1500" s="3"/>
     </row>
     <row r="1501" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1501" s="5"/>
+      <c r="B1501" s="3"/>
     </row>
     <row r="1502" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1502" s="5"/>
+      <c r="B1502" s="3"/>
     </row>
     <row r="1503" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1503" s="5"/>
+      <c r="B1503" s="3"/>
     </row>
     <row r="1504" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1504" s="5"/>
+      <c r="B1504" s="3"/>
     </row>
     <row r="1505" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1505" s="5"/>
+      <c r="B1505" s="3"/>
     </row>
     <row r="1506" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1506" s="5"/>
+      <c r="B1506" s="3"/>
     </row>
     <row r="1507" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1507" s="5"/>
+      <c r="B1507" s="3"/>
     </row>
     <row r="1508" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1508" s="5"/>
+      <c r="B1508" s="3"/>
     </row>
     <row r="1509" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1509" s="5"/>
+      <c r="B1509" s="3"/>
     </row>
     <row r="1510" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1510" s="5"/>
+      <c r="B1510" s="3"/>
     </row>
     <row r="1511" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1511" s="5"/>
+      <c r="B1511" s="3"/>
     </row>
     <row r="1512" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1512" s="5"/>
+      <c r="B1512" s="3"/>
     </row>
     <row r="1513" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1513" s="5"/>
+      <c r="B1513" s="3"/>
     </row>
     <row r="1514" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1514" s="5"/>
+      <c r="B1514" s="3"/>
     </row>
     <row r="1515" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1515" s="5"/>
+      <c r="B1515" s="3"/>
     </row>
     <row r="1516" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1516" s="5"/>
+      <c r="B1516" s="3"/>
     </row>
     <row r="1517" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1517" s="5"/>
+      <c r="B1517" s="3"/>
     </row>
     <row r="1518" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1518" s="5"/>
+      <c r="B1518" s="3"/>
     </row>
     <row r="1519" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1519" s="5"/>
+      <c r="B1519" s="3"/>
     </row>
     <row r="1520" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1520" s="5"/>
+      <c r="B1520" s="3"/>
     </row>
     <row r="1521" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1521" s="5"/>
+      <c r="B1521" s="3"/>
     </row>
     <row r="1522" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1522" s="5"/>
+      <c r="B1522" s="3"/>
     </row>
     <row r="1523" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1523" s="5"/>
+      <c r="B1523" s="3"/>
     </row>
     <row r="1524" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1524" s="5"/>
+      <c r="B1524" s="3"/>
     </row>
     <row r="1525" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1525" s="5"/>
+      <c r="B1525" s="3"/>
     </row>
     <row r="1526" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1526" s="5"/>
+      <c r="B1526" s="3"/>
     </row>
     <row r="1527" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1527" s="5"/>
+      <c r="B1527" s="3"/>
     </row>
     <row r="1528" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1528" s="5"/>
+      <c r="B1528" s="3"/>
     </row>
     <row r="1529" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1529" s="5"/>
+      <c r="B1529" s="3"/>
     </row>
     <row r="1530" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1530" s="5"/>
+      <c r="B1530" s="3"/>
     </row>
     <row r="1531" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1531" s="5"/>
+      <c r="B1531" s="3"/>
     </row>
     <row r="1532" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1532" s="5"/>
+      <c r="B1532" s="3"/>
     </row>
     <row r="1533" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1533" s="5"/>
+      <c r="B1533" s="3"/>
     </row>
     <row r="1534" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1534" s="5"/>
+      <c r="B1534" s="3"/>
     </row>
     <row r="1535" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1535" s="5"/>
+      <c r="B1535" s="3"/>
     </row>
     <row r="1536" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1536" s="5"/>
+      <c r="B1536" s="3"/>
     </row>
     <row r="1537" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1537" s="5"/>
+      <c r="B1537" s="3"/>
     </row>
     <row r="1538" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1538" s="5"/>
+      <c r="B1538" s="3"/>
     </row>
     <row r="1539" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1539" s="5"/>
+      <c r="B1539" s="3"/>
     </row>
     <row r="1540" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1540" s="5"/>
+      <c r="B1540" s="3"/>
     </row>
     <row r="1541" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1541" s="5"/>
+      <c r="B1541" s="3"/>
     </row>
     <row r="1542" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1542" s="5"/>
+      <c r="B1542" s="3"/>
     </row>
     <row r="1543" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1543" s="5"/>
+      <c r="B1543" s="3"/>
     </row>
     <row r="1544" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1544" s="5"/>
+      <c r="B1544" s="3"/>
     </row>
     <row r="1545" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1545" s="5"/>
+      <c r="B1545" s="3"/>
     </row>
     <row r="1546" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1546" s="5"/>
+      <c r="B1546" s="3"/>
     </row>
     <row r="1547" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1547" s="5"/>
+      <c r="B1547" s="3"/>
     </row>
     <row r="1548" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1548" s="5"/>
+      <c r="B1548" s="3"/>
     </row>
     <row r="1549" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1549" s="5"/>
+      <c r="B1549" s="3"/>
     </row>
     <row r="1550" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1550" s="5"/>
+      <c r="B1550" s="3"/>
     </row>
     <row r="1551" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1551" s="5"/>
+      <c r="B1551" s="3"/>
     </row>
     <row r="1552" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1552" s="5"/>
+      <c r="B1552" s="3"/>
     </row>
     <row r="1553" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1553" s="5"/>
+      <c r="B1553" s="3"/>
     </row>
     <row r="1554" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1554" s="5"/>
+      <c r="B1554" s="3"/>
     </row>
     <row r="1555" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1555" s="5"/>
+      <c r="B1555" s="3"/>
     </row>
     <row r="1556" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1556" s="5"/>
+      <c r="B1556" s="3"/>
     </row>
     <row r="1557" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1557" s="5"/>
+      <c r="B1557" s="3"/>
     </row>
     <row r="1558" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1558" s="5"/>
+      <c r="B1558" s="3"/>
     </row>
     <row r="1559" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1559" s="5"/>
+      <c r="B1559" s="3"/>
     </row>
     <row r="1560" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1560" s="5"/>
+      <c r="B1560" s="3"/>
     </row>
     <row r="1561" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1561" s="5"/>
+      <c r="B1561" s="3"/>
     </row>
     <row r="1562" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1562" s="5"/>
+      <c r="B1562" s="3"/>
     </row>
     <row r="1563" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1563" s="5"/>
+      <c r="B1563" s="3"/>
     </row>
     <row r="1564" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1564" s="5"/>
+      <c r="B1564" s="3"/>
     </row>
     <row r="1565" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1565" s="5"/>
+      <c r="B1565" s="3"/>
     </row>
     <row r="1566" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1566" s="5"/>
+      <c r="B1566" s="3"/>
     </row>
     <row r="1567" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1567" s="5"/>
+      <c r="B1567" s="3"/>
     </row>
     <row r="1568" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1568" s="5"/>
+      <c r="B1568" s="3"/>
     </row>
     <row r="1569" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1569" s="5"/>
+      <c r="B1569" s="3"/>
     </row>
     <row r="1570" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1570" s="5"/>
+      <c r="B1570" s="3"/>
     </row>
     <row r="1571" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1571" s="5"/>
+      <c r="B1571" s="3"/>
     </row>
     <row r="1572" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1572" s="5"/>
+      <c r="B1572" s="3"/>
     </row>
     <row r="1573" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1573" s="5"/>
+      <c r="B1573" s="3"/>
     </row>
     <row r="1574" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1574" s="5"/>
+      <c r="B1574" s="3"/>
     </row>
     <row r="1575" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1575" s="5"/>
+      <c r="B1575" s="3"/>
     </row>
     <row r="1576" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1576" s="5"/>
+      <c r="B1576" s="3"/>
     </row>
     <row r="1577" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1577" s="5"/>
+      <c r="B1577" s="3"/>
     </row>
     <row r="1578" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1578" s="5"/>
+      <c r="B1578" s="3"/>
     </row>
     <row r="1579" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1579" s="5"/>
+      <c r="B1579" s="3"/>
     </row>
     <row r="1580" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1580" s="5"/>
+      <c r="B1580" s="3"/>
     </row>
     <row r="1581" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1581" s="5"/>
+      <c r="B1581" s="3"/>
     </row>
     <row r="1582" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1582" s="5"/>
+      <c r="B1582" s="3"/>
     </row>
     <row r="1583" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1583" s="5"/>
+      <c r="B1583" s="3"/>
     </row>
     <row r="1584" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1584" s="5"/>
+      <c r="B1584" s="3"/>
     </row>
     <row r="1585" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1585" s="5"/>
+      <c r="B1585" s="3"/>
     </row>
     <row r="1586" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1586" s="5"/>
+      <c r="B1586" s="3"/>
     </row>
     <row r="1587" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1587" s="5"/>
+      <c r="B1587" s="3"/>
     </row>
     <row r="1588" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1588" s="5"/>
+      <c r="B1588" s="3"/>
     </row>
     <row r="1589" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1589" s="5"/>
+      <c r="B1589" s="3"/>
     </row>
     <row r="1590" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1590" s="5"/>
+      <c r="B1590" s="3"/>
     </row>
     <row r="1591" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1591" s="5"/>
+      <c r="B1591" s="3"/>
     </row>
     <row r="1592" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1592" s="5"/>
+      <c r="B1592" s="3"/>
     </row>
     <row r="1593" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1593" s="5"/>
+      <c r="B1593" s="3"/>
     </row>
     <row r="1594" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1594" s="5"/>
+      <c r="B1594" s="3"/>
     </row>
     <row r="1595" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1595" s="5"/>
+      <c r="B1595" s="3"/>
     </row>
     <row r="1596" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1596" s="5"/>
+      <c r="B1596" s="3"/>
     </row>
     <row r="1597" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1597" s="5"/>
+      <c r="B1597" s="3"/>
     </row>
     <row r="1598" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1598" s="5"/>
+      <c r="B1598" s="3"/>
     </row>
     <row r="1599" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1599" s="5"/>
+      <c r="B1599" s="3"/>
     </row>
     <row r="1600" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1600" s="5"/>
+      <c r="B1600" s="3"/>
     </row>
     <row r="1601" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1601" s="5"/>
+      <c r="B1601" s="3"/>
     </row>
     <row r="1602" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1602" s="5"/>
+      <c r="B1602" s="3"/>
     </row>
     <row r="1603" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1603" s="5"/>
+      <c r="B1603" s="3"/>
     </row>
     <row r="1604" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1604" s="5"/>
+      <c r="B1604" s="3"/>
     </row>
     <row r="1605" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1605" s="5"/>
+      <c r="B1605" s="3"/>
     </row>
     <row r="1606" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1606" s="5"/>
+      <c r="B1606" s="3"/>
     </row>
     <row r="1607" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1607" s="5"/>
+      <c r="B1607" s="3"/>
     </row>
     <row r="1608" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1608" s="5"/>
+      <c r="B1608" s="3"/>
     </row>
     <row r="1609" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1609" s="5"/>
+      <c r="B1609" s="3"/>
     </row>
     <row r="1610" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1610" s="5"/>
+      <c r="B1610" s="3"/>
     </row>
     <row r="1611" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1611" s="5"/>
+      <c r="B1611" s="3"/>
     </row>
     <row r="1612" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1612" s="5"/>
+      <c r="B1612" s="3"/>
     </row>
     <row r="1613" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1613" s="5"/>
+      <c r="B1613" s="3"/>
     </row>
     <row r="1614" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1614" s="5"/>
+      <c r="B1614" s="3"/>
     </row>
     <row r="1615" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1615" s="5"/>
+      <c r="B1615" s="3"/>
     </row>
     <row r="1616" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1616" s="5"/>
+      <c r="B1616" s="3"/>
     </row>
     <row r="1617" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1617" s="5"/>
+      <c r="B1617" s="3"/>
     </row>
     <row r="1618" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1618" s="5"/>
+      <c r="B1618" s="3"/>
     </row>
     <row r="1619" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1619" s="5"/>
+      <c r="B1619" s="3"/>
     </row>
     <row r="1620" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1620" s="5"/>
+      <c r="B1620" s="3"/>
     </row>
     <row r="1621" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1621" s="5"/>
+      <c r="B1621" s="3"/>
     </row>
     <row r="1622" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1622" s="5"/>
+      <c r="B1622" s="3"/>
     </row>
     <row r="1623" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1623" s="5"/>
+      <c r="B1623" s="3"/>
     </row>
     <row r="1624" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1624" s="5"/>
+      <c r="B1624" s="3"/>
     </row>
     <row r="1625" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1625" s="5"/>
+      <c r="B1625" s="3"/>
     </row>
     <row r="1626" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1626" s="5"/>
+      <c r="B1626" s="3"/>
     </row>
     <row r="1627" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1627" s="5"/>
+      <c r="B1627" s="3"/>
     </row>
     <row r="1628" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1628" s="5"/>
+      <c r="B1628" s="3"/>
     </row>
     <row r="1629" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1629" s="5"/>
+      <c r="B1629" s="3"/>
     </row>
     <row r="1630" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1630" s="5"/>
+      <c r="B1630" s="3"/>
     </row>
     <row r="1631" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1631" s="5"/>
+      <c r="B1631" s="3"/>
     </row>
     <row r="1632" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1632" s="5"/>
+      <c r="B1632" s="3"/>
     </row>
     <row r="1633" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1633" s="5"/>
+      <c r="B1633" s="3"/>
     </row>
     <row r="1634" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1634" s="5"/>
+      <c r="B1634" s="3"/>
     </row>
     <row r="1635" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1635" s="5"/>
+      <c r="B1635" s="3"/>
     </row>
     <row r="1636" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1636" s="5"/>
+      <c r="B1636" s="3"/>
     </row>
     <row r="1637" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1637" s="5"/>
+      <c r="B1637" s="3"/>
     </row>
     <row r="1638" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1638" s="5"/>
+      <c r="B1638" s="3"/>
     </row>
     <row r="1639" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1639" s="5"/>
+      <c r="B1639" s="3"/>
     </row>
     <row r="1640" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1640" s="5"/>
+      <c r="B1640" s="3"/>
     </row>
     <row r="1641" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1641" s="5"/>
+      <c r="B1641" s="3"/>
     </row>
     <row r="1642" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1642" s="5"/>
+      <c r="B1642" s="3"/>
     </row>
     <row r="1643" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1643" s="5"/>
+      <c r="B1643" s="3"/>
     </row>
     <row r="1644" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1644" s="5"/>
+      <c r="B1644" s="3"/>
     </row>
     <row r="1645" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1645" s="5"/>
+      <c r="B1645" s="3"/>
     </row>
     <row r="1646" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1646" s="5"/>
+      <c r="B1646" s="3"/>
     </row>
     <row r="1647" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1647" s="5"/>
+      <c r="B1647" s="3"/>
     </row>
     <row r="1648" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1648" s="5"/>
+      <c r="B1648" s="3"/>
     </row>
     <row r="1649" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1649" s="5"/>
+      <c r="B1649" s="3"/>
     </row>
     <row r="1650" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1650" s="5"/>
+      <c r="B1650" s="3"/>
     </row>
     <row r="1651" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1651" s="5"/>
+      <c r="B1651" s="3"/>
     </row>
     <row r="1652" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1652" s="5"/>
+      <c r="B1652" s="3"/>
     </row>
     <row r="1653" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1653" s="5"/>
+      <c r="B1653" s="3"/>
     </row>
     <row r="1654" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1654" s="5"/>
+      <c r="B1654" s="3"/>
     </row>
     <row r="1655" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1655" s="5"/>
+      <c r="B1655" s="3"/>
     </row>
     <row r="1656" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1656" s="5"/>
+      <c r="B1656" s="3"/>
     </row>
     <row r="1657" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1657" s="5"/>
+      <c r="B1657" s="3"/>
     </row>
     <row r="1658" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1658" s="5"/>
+      <c r="B1658" s="3"/>
     </row>
     <row r="1659" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1659" s="5"/>
+      <c r="B1659" s="3"/>
     </row>
     <row r="1660" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1660" s="5"/>
+      <c r="B1660" s="3"/>
     </row>
     <row r="1661" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1661" s="5"/>
+      <c r="B1661" s="3"/>
     </row>
     <row r="1662" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1662" s="5"/>
+      <c r="B1662" s="3"/>
     </row>
     <row r="1663" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1663" s="5"/>
+      <c r="B1663" s="3"/>
     </row>
     <row r="1664" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1664" s="5"/>
+      <c r="B1664" s="3"/>
     </row>
     <row r="1665" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1665" s="5"/>
+      <c r="B1665" s="3"/>
     </row>
     <row r="1666" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1666" s="5"/>
+      <c r="B1666" s="3"/>
     </row>
     <row r="1667" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1667" s="5"/>
+      <c r="B1667" s="3"/>
     </row>
     <row r="1668" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1668" s="5"/>
+      <c r="B1668" s="3"/>
     </row>
     <row r="1669" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1669" s="5"/>
+      <c r="B1669" s="3"/>
     </row>
     <row r="1670" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1670" s="5"/>
+      <c r="B1670" s="3"/>
     </row>
     <row r="1671" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1671" s="5"/>
+      <c r="B1671" s="3"/>
     </row>
     <row r="1672" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1672" s="5"/>
+      <c r="B1672" s="3"/>
     </row>
     <row r="1673" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1673" s="5"/>
+      <c r="B1673" s="3"/>
     </row>
     <row r="1674" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1674" s="5"/>
+      <c r="B1674" s="3"/>
     </row>
     <row r="1675" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1675" s="5"/>
+      <c r="B1675" s="3"/>
     </row>
     <row r="1676" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1676" s="5"/>
+      <c r="B1676" s="3"/>
     </row>
     <row r="1677" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1677" s="5"/>
+      <c r="B1677" s="3"/>
     </row>
     <row r="1678" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1678" s="5"/>
+      <c r="B1678" s="3"/>
     </row>
     <row r="1679" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1679" s="5"/>
+      <c r="B1679" s="3"/>
     </row>
     <row r="1680" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1680" s="5"/>
+      <c r="B1680" s="3"/>
     </row>
     <row r="1681" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1681" s="5"/>
+      <c r="B1681" s="3"/>
     </row>
     <row r="1682" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1682" s="5"/>
+      <c r="B1682" s="3"/>
     </row>
     <row r="1683" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1683" s="5"/>
+      <c r="B1683" s="3"/>
     </row>
     <row r="1684" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1684" s="5"/>
+      <c r="B1684" s="3"/>
     </row>
     <row r="1685" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1685" s="5"/>
+      <c r="B1685" s="3"/>
     </row>
     <row r="1686" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1686" s="5"/>
+      <c r="B1686" s="3"/>
     </row>
     <row r="1687" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1687" s="5"/>
+      <c r="B1687" s="3"/>
     </row>
     <row r="1688" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1688" s="5"/>
+      <c r="B1688" s="3"/>
     </row>
     <row r="1689" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1689" s="5"/>
+      <c r="B1689" s="3"/>
     </row>
     <row r="1690" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1690" s="5"/>
+      <c r="B1690" s="3"/>
     </row>
     <row r="1691" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1691" s="5"/>
+      <c r="B1691" s="3"/>
     </row>
     <row r="1692" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1692" s="5"/>
+      <c r="B1692" s="3"/>
     </row>
     <row r="1693" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1693" s="5"/>
+      <c r="B1693" s="3"/>
     </row>
     <row r="1694" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1694" s="5"/>
+      <c r="B1694" s="3"/>
     </row>
     <row r="1695" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1695" s="5"/>
+      <c r="B1695" s="3"/>
     </row>
     <row r="1696" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1696" s="5"/>
+      <c r="B1696" s="3"/>
     </row>
     <row r="1697" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1697" s="5"/>
+      <c r="B1697" s="3"/>
     </row>
     <row r="1698" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1698" s="5"/>
+      <c r="B1698" s="3"/>
     </row>
     <row r="1699" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1699" s="5"/>
+      <c r="B1699" s="3"/>
     </row>
     <row r="1700" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1700" s="5"/>
+      <c r="B1700" s="3"/>
     </row>
     <row r="1701" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1701" s="5"/>
+      <c r="B1701" s="3"/>
     </row>
     <row r="1702" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1702" s="5"/>
+      <c r="B1702" s="3"/>
     </row>
     <row r="1703" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1703" s="5"/>
+      <c r="B1703" s="3"/>
     </row>
     <row r="1704" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1704" s="5"/>
+      <c r="B1704" s="3"/>
     </row>
     <row r="1705" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1705" s="5"/>
+      <c r="B1705" s="3"/>
     </row>
     <row r="1706" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1706" s="5"/>
+      <c r="B1706" s="3"/>
     </row>
     <row r="1707" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1707" s="5"/>
+      <c r="B1707" s="3"/>
     </row>
     <row r="1708" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1708" s="5"/>
+      <c r="B1708" s="3"/>
     </row>
     <row r="1709" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1709" s="5"/>
+      <c r="B1709" s="3"/>
     </row>
     <row r="1710" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1710" s="5"/>
+      <c r="B1710" s="3"/>
     </row>
     <row r="1711" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1711" s="5"/>
+      <c r="B1711" s="3"/>
     </row>
     <row r="1712" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1712" s="5"/>
+      <c r="B1712" s="3"/>
     </row>
     <row r="1713" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1713" s="5"/>
+      <c r="B1713" s="3"/>
     </row>
     <row r="1714" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1714" s="5"/>
+      <c r="B1714" s="3"/>
     </row>
     <row r="1715" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1715" s="5"/>
+      <c r="B1715" s="3"/>
     </row>
     <row r="1716" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1716" s="5"/>
+      <c r="B1716" s="3"/>
     </row>
     <row r="1717" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1717" s="5"/>
+      <c r="B1717" s="3"/>
     </row>
     <row r="1718" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1718" s="5"/>
+      <c r="B1718" s="3"/>
     </row>
     <row r="1719" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1719" s="5"/>
+      <c r="B1719" s="3"/>
     </row>
     <row r="1720" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1720" s="5"/>
+      <c r="B1720" s="3"/>
     </row>
     <row r="1721" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1721" s="5"/>
+      <c r="B1721" s="3"/>
     </row>
     <row r="1722" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1722" s="5"/>
+      <c r="B1722" s="3"/>
     </row>
     <row r="1723" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1723" s="5"/>
+      <c r="B1723" s="3"/>
     </row>
     <row r="1724" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1724" s="5"/>
+      <c r="B1724" s="3"/>
     </row>
     <row r="1725" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1725" s="5"/>
+      <c r="B1725" s="3"/>
     </row>
     <row r="1726" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1726" s="5"/>
+      <c r="B1726" s="3"/>
     </row>
     <row r="1727" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1727" s="5"/>
+      <c r="B1727" s="3"/>
     </row>
     <row r="1728" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1728" s="5"/>
+      <c r="B1728" s="3"/>
     </row>
     <row r="1729" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1729" s="5"/>
+      <c r="B1729" s="3"/>
     </row>
     <row r="1730" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1730" s="5"/>
+      <c r="B1730" s="3"/>
     </row>
     <row r="1731" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1731" s="5"/>
+      <c r="B1731" s="3"/>
     </row>
     <row r="1732" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1732" s="5"/>
+      <c r="B1732" s="3"/>
     </row>
     <row r="1733" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1733" s="5"/>
+      <c r="B1733" s="3"/>
     </row>
     <row r="1734" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1734" s="5"/>
+      <c r="B1734" s="3"/>
     </row>
     <row r="1735" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1735" s="5"/>
+      <c r="B1735" s="3"/>
     </row>
     <row r="1736" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1736" s="5"/>
+      <c r="B1736" s="3"/>
     </row>
     <row r="1737" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1737" s="5"/>
+      <c r="B1737" s="3"/>
     </row>
     <row r="1738" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1738" s="5"/>
+      <c r="B1738" s="3"/>
     </row>
     <row r="1739" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1739" s="5"/>
+      <c r="B1739" s="3"/>
     </row>
     <row r="1740" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1740" s="5"/>
+      <c r="B1740" s="3"/>
     </row>
     <row r="1741" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1741" s="5"/>
+      <c r="B1741" s="3"/>
     </row>
     <row r="1742" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1742" s="5"/>
+      <c r="B1742" s="3"/>
     </row>
     <row r="1743" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1743" s="5"/>
+      <c r="B1743" s="3"/>
     </row>
     <row r="1744" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1744" s="5"/>
+      <c r="B1744" s="3"/>
     </row>
     <row r="1745" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1745" s="5"/>
+      <c r="B1745" s="3"/>
     </row>
     <row r="1746" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1746" s="5"/>
+      <c r="B1746" s="3"/>
     </row>
     <row r="1747" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1747" s="5"/>
+      <c r="B1747" s="3"/>
     </row>
     <row r="1748" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1748" s="5"/>
+      <c r="B1748" s="3"/>
     </row>
     <row r="1749" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1749" s="5"/>
+      <c r="B1749" s="3"/>
     </row>
     <row r="1750" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1750" s="5"/>
+      <c r="B1750" s="3"/>
     </row>
     <row r="1751" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1751" s="5"/>
+      <c r="B1751" s="3"/>
     </row>
     <row r="1752" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1752" s="5"/>
+      <c r="B1752" s="3"/>
     </row>
     <row r="1753" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1753" s="5"/>
+      <c r="B1753" s="3"/>
     </row>
     <row r="1754" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1754" s="5"/>
+      <c r="B1754" s="3"/>
     </row>
     <row r="1755" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1755" s="5"/>
+      <c r="B1755" s="3"/>
     </row>
     <row r="1756" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1756" s="5"/>
+      <c r="B1756" s="3"/>
     </row>
     <row r="1757" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1757" s="5"/>
+      <c r="B1757" s="3"/>
     </row>
     <row r="1758" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1758" s="5"/>
+      <c r="B1758" s="3"/>
     </row>
     <row r="1759" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1759" s="5"/>
+      <c r="B1759" s="3"/>
     </row>
     <row r="1760" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1760" s="5"/>
+      <c r="B1760" s="3"/>
     </row>
     <row r="1761" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1761" s="5"/>
+      <c r="B1761" s="3"/>
     </row>
     <row r="1762" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1762" s="5"/>
+      <c r="B1762" s="3"/>
     </row>
     <row r="1763" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1763" s="5"/>
+      <c r="B1763" s="3"/>
     </row>
     <row r="1764" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1764" s="5"/>
+      <c r="B1764" s="3"/>
     </row>
     <row r="1765" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1765" s="5"/>
+      <c r="B1765" s="3"/>
     </row>
     <row r="1766" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1766" s="5"/>
+      <c r="B1766" s="3"/>
     </row>
     <row r="1767" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1767" s="5"/>
+      <c r="B1767" s="3"/>
     </row>
     <row r="1768" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1768" s="5"/>
+      <c r="B1768" s="3"/>
     </row>
     <row r="1769" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1769" s="5"/>
+      <c r="B1769" s="3"/>
     </row>
     <row r="1770" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1770" s="5"/>
+      <c r="B1770" s="3"/>
     </row>
     <row r="1771" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1771" s="5"/>
+      <c r="B1771" s="3"/>
     </row>
     <row r="1772" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1772" s="5"/>
+      <c r="B1772" s="3"/>
     </row>
     <row r="1773" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1773" s="5"/>
+      <c r="B1773" s="3"/>
     </row>
     <row r="1774" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1774" s="5"/>
+      <c r="B1774" s="3"/>
     </row>
     <row r="1775" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1775" s="5"/>
+      <c r="B1775" s="3"/>
     </row>
     <row r="1776" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1776" s="5"/>
+      <c r="B1776" s="3"/>
     </row>
     <row r="1777" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1777" s="5"/>
+      <c r="B1777" s="3"/>
     </row>
     <row r="1778" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1778" s="5"/>
+      <c r="B1778" s="3"/>
     </row>
     <row r="1779" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1779" s="5"/>
+      <c r="B1779" s="3"/>
     </row>
     <row r="1780" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1780" s="5"/>
+      <c r="B1780" s="3"/>
     </row>
     <row r="1781" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1781" s="5"/>
+      <c r="B1781" s="3"/>
     </row>
     <row r="1782" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1782" s="5"/>
+      <c r="B1782" s="3"/>
     </row>
     <row r="1783" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1783" s="5"/>
+      <c r="B1783" s="3"/>
     </row>
     <row r="1784" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1784" s="5"/>
+      <c r="B1784" s="3"/>
     </row>
     <row r="1785" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1785" s="5"/>
+      <c r="B1785" s="3"/>
     </row>
     <row r="1786" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1786" s="5"/>
+      <c r="B1786" s="3"/>
     </row>
     <row r="1787" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1787" s="5"/>
+      <c r="B1787" s="3"/>
     </row>
     <row r="1788" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1788" s="5"/>
+      <c r="B1788" s="3"/>
     </row>
     <row r="1789" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1789" s="5"/>
+      <c r="B1789" s="3"/>
     </row>
     <row r="1790" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1790" s="5"/>
+      <c r="B1790" s="3"/>
     </row>
     <row r="1791" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1791" s="5"/>
+      <c r="B1791" s="3"/>
     </row>
     <row r="1792" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1792" s="5"/>
+      <c r="B1792" s="3"/>
     </row>
     <row r="1793" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1793" s="5"/>
+      <c r="B1793" s="3"/>
     </row>
     <row r="1794" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1794" s="5"/>
+      <c r="B1794" s="3"/>
     </row>
     <row r="1795" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1795" s="5"/>
+      <c r="B1795" s="3"/>
     </row>
     <row r="1796" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1796" s="5"/>
+      <c r="B1796" s="3"/>
     </row>
     <row r="1797" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1797" s="5"/>
+      <c r="B1797" s="3"/>
     </row>
     <row r="1798" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1798" s="5"/>
+      <c r="B1798" s="3"/>
     </row>
     <row r="1799" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1799" s="5"/>
+      <c r="B1799" s="3"/>
     </row>
     <row r="1800" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1800" s="5"/>
+      <c r="B1800" s="3"/>
     </row>
     <row r="1801" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1801" s="5"/>
+      <c r="B1801" s="3"/>
     </row>
     <row r="1802" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1802" s="5"/>
+      <c r="B1802" s="3"/>
     </row>
     <row r="1803" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1803" s="5"/>
+      <c r="B1803" s="3"/>
     </row>
     <row r="1804" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1804" s="5"/>
+      <c r="B1804" s="3"/>
     </row>
     <row r="1805" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1805" s="5"/>
+      <c r="B1805" s="3"/>
     </row>
     <row r="1806" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1806" s="5"/>
+      <c r="B1806" s="3"/>
     </row>
     <row r="1807" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1807" s="5"/>
+      <c r="B1807" s="3"/>
     </row>
     <row r="1808" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1808" s="5"/>
+      <c r="B1808" s="3"/>
     </row>
     <row r="1809" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1809" s="5"/>
+      <c r="B1809" s="3"/>
     </row>
     <row r="1810" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1810" s="5"/>
+      <c r="B1810" s="3"/>
     </row>
     <row r="1811" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1811" s="5"/>
+      <c r="B1811" s="3"/>
     </row>
     <row r="1812" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1812" s="5"/>
+      <c r="B1812" s="3"/>
     </row>
     <row r="1813" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1813" s="5"/>
+      <c r="B1813" s="3"/>
     </row>
     <row r="1814" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1814" s="5"/>
+      <c r="B1814" s="3"/>
     </row>
     <row r="1815" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1815" s="5"/>
+      <c r="B1815" s="3"/>
     </row>
     <row r="1816" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1816" s="5"/>
+      <c r="B1816" s="3"/>
     </row>
     <row r="1817" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1817" s="5"/>
+      <c r="B1817" s="3"/>
     </row>
     <row r="1818" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1818" s="5"/>
+      <c r="B1818" s="3"/>
     </row>
     <row r="1819" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1819" s="5"/>
+      <c r="B1819" s="3"/>
     </row>
     <row r="1820" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1820" s="5"/>
+      <c r="B1820" s="3"/>
     </row>
     <row r="1821" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1821" s="5"/>
+      <c r="B1821" s="3"/>
     </row>
     <row r="1822" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1822" s="5"/>
+      <c r="B1822" s="3"/>
     </row>
     <row r="1823" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1823" s="5"/>
+      <c r="B1823" s="3"/>
     </row>
     <row r="1824" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1824" s="5"/>
+      <c r="B1824" s="3"/>
     </row>
     <row r="1825" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1825" s="5"/>
+      <c r="B1825" s="3"/>
     </row>
     <row r="1826" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1826" s="5"/>
+      <c r="B1826" s="3"/>
     </row>
     <row r="1827" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1827" s="5"/>
+      <c r="B1827" s="3"/>
     </row>
     <row r="1828" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1828" s="5"/>
+      <c r="B1828" s="3"/>
     </row>
     <row r="1829" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1829" s="5"/>
+      <c r="B1829" s="3"/>
     </row>
     <row r="1830" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1830" s="5"/>
+      <c r="B1830" s="3"/>
     </row>
     <row r="1831" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1831" s="5"/>
+      <c r="B1831" s="3"/>
     </row>
     <row r="1832" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1832" s="5"/>
+      <c r="B1832" s="3"/>
     </row>
     <row r="1833" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1833" s="5"/>
+      <c r="B1833" s="3"/>
     </row>
     <row r="1834" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1834" s="5"/>
+      <c r="B1834" s="3"/>
     </row>
     <row r="1835" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1835" s="5"/>
+      <c r="B1835" s="3"/>
     </row>
     <row r="1836" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1836" s="5"/>
+      <c r="B1836" s="3"/>
     </row>
     <row r="1837" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1837" s="5"/>
+      <c r="B1837" s="3"/>
     </row>
     <row r="1838" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1838" s="5"/>
+      <c r="B1838" s="3"/>
     </row>
     <row r="1839" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1839" s="5"/>
+      <c r="B1839" s="3"/>
     </row>
     <row r="1840" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1840" s="5"/>
+      <c r="B1840" s="3"/>
     </row>
     <row r="1841" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1841" s="5"/>
+      <c r="B1841" s="3"/>
     </row>
     <row r="1842" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1842" s="5"/>
+      <c r="B1842" s="3"/>
     </row>
     <row r="1843" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1843" s="5"/>
+      <c r="B1843" s="3"/>
     </row>
     <row r="1844" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1844" s="5"/>
+      <c r="B1844" s="3"/>
     </row>
     <row r="1845" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1845" s="5"/>
+      <c r="B1845" s="3"/>
     </row>
     <row r="1846" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1846" s="5"/>
+      <c r="B1846" s="3"/>
     </row>
     <row r="1847" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1847" s="5"/>
+      <c r="B1847" s="3"/>
     </row>
     <row r="1848" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1848" s="5"/>
+      <c r="B1848" s="3"/>
     </row>
     <row r="1849" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1849" s="5"/>
+      <c r="B1849" s="3"/>
     </row>
     <row r="1850" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1850" s="5"/>
+      <c r="B1850" s="3"/>
     </row>
     <row r="1851" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1851" s="5"/>
+      <c r="B1851" s="3"/>
     </row>
     <row r="1852" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1852" s="5"/>
+      <c r="B1852" s="3"/>
     </row>
     <row r="1853" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1853" s="5"/>
+      <c r="B1853" s="3"/>
     </row>
     <row r="1854" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1854" s="5"/>
+      <c r="B1854" s="3"/>
     </row>
     <row r="1855" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1855" s="5"/>
+      <c r="B1855" s="3"/>
     </row>
     <row r="1856" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1856" s="5"/>
+      <c r="B1856" s="3"/>
     </row>
     <row r="1857" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1857" s="5"/>
+      <c r="B1857" s="3"/>
     </row>
     <row r="1858" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1858" s="5"/>
+      <c r="B1858" s="3"/>
     </row>
     <row r="1859" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1859" s="5"/>
+      <c r="B1859" s="3"/>
     </row>
     <row r="1860" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1860" s="5"/>
+      <c r="B1860" s="3"/>
     </row>
     <row r="1861" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1861" s="5"/>
+      <c r="B1861" s="3"/>
     </row>
     <row r="1862" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1862" s="5"/>
+      <c r="B1862" s="3"/>
     </row>
     <row r="1863" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1863" s="5"/>
+      <c r="B1863" s="3"/>
     </row>
     <row r="1864" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1864" s="5"/>
+      <c r="B1864" s="3"/>
     </row>
     <row r="1865" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1865" s="5"/>
+      <c r="B1865" s="3"/>
     </row>
     <row r="1866" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1866" s="5"/>
+      <c r="B1866" s="3"/>
     </row>
     <row r="1867" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1867" s="5"/>
+      <c r="B1867" s="3"/>
     </row>
     <row r="1868" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1868" s="5"/>
+      <c r="B1868" s="3"/>
     </row>
     <row r="1869" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1869" s="5"/>
+      <c r="B1869" s="3"/>
     </row>
     <row r="1870" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1870" s="5"/>
+      <c r="B1870" s="3"/>
     </row>
     <row r="1871" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1871" s="5"/>
+      <c r="B1871" s="3"/>
     </row>
     <row r="1872" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1872" s="5"/>
+      <c r="B1872" s="3"/>
     </row>
     <row r="1873" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1873" s="5"/>
+      <c r="B1873" s="3"/>
     </row>
     <row r="1874" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1874" s="5"/>
+      <c r="B1874" s="3"/>
     </row>
     <row r="1875" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1875" s="5"/>
+      <c r="B1875" s="3"/>
     </row>
     <row r="1876" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1876" s="5"/>
+      <c r="B1876" s="3"/>
     </row>
     <row r="1877" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1877" s="5"/>
+      <c r="B1877" s="3"/>
     </row>
     <row r="1878" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1878" s="5"/>
+      <c r="B1878" s="3"/>
     </row>
     <row r="1879" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1879" s="5"/>
+      <c r="B1879" s="3"/>
     </row>
     <row r="1880" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1880" s="5"/>
+      <c r="B1880" s="3"/>
     </row>
     <row r="1881" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1881" s="5"/>
+      <c r="B1881" s="3"/>
     </row>
     <row r="1882" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1882" s="5"/>
+      <c r="B1882" s="3"/>
     </row>
     <row r="1883" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1883" s="5"/>
+      <c r="B1883" s="3"/>
     </row>
     <row r="1884" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1884" s="5"/>
+      <c r="B1884" s="3"/>
     </row>
     <row r="1885" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1885" s="5"/>
+      <c r="B1885" s="3"/>
     </row>
     <row r="1886" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1886" s="5"/>
+      <c r="B1886" s="3"/>
     </row>
     <row r="1887" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1887" s="5"/>
+      <c r="B1887" s="3"/>
     </row>
     <row r="1888" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1888" s="5"/>
+      <c r="B1888" s="3"/>
     </row>
     <row r="1889" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1889" s="5"/>
+      <c r="B1889" s="3"/>
     </row>
     <row r="1890" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1890" s="5"/>
+      <c r="B1890" s="3"/>
     </row>
     <row r="1891" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1891" s="5"/>
+      <c r="B1891" s="3"/>
     </row>
     <row r="1892" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1892" s="5"/>
+      <c r="B1892" s="3"/>
     </row>
     <row r="1893" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1893" s="5"/>
+      <c r="B1893" s="3"/>
     </row>
     <row r="1894" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1894" s="5"/>
+      <c r="B1894" s="3"/>
     </row>
     <row r="1895" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1895" s="5"/>
+      <c r="B1895" s="3"/>
     </row>
     <row r="1896" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1896" s="5"/>
+      <c r="B1896" s="3"/>
     </row>
     <row r="1897" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1897" s="5"/>
+      <c r="B1897" s="3"/>
     </row>
     <row r="1898" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1898" s="5"/>
+      <c r="B1898" s="3"/>
     </row>
     <row r="1899" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1899" s="5"/>
+      <c r="B1899" s="3"/>
     </row>
     <row r="1900" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1900" s="5"/>
+      <c r="B1900" s="3"/>
     </row>
     <row r="1901" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1901" s="5"/>
+      <c r="B1901" s="3"/>
     </row>
     <row r="1902" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1902" s="5"/>
+      <c r="B1902" s="3"/>
     </row>
     <row r="1903" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1903" s="5"/>
+      <c r="B1903" s="3"/>
     </row>
     <row r="1904" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1904" s="5"/>
+      <c r="B1904" s="3"/>
     </row>
     <row r="1905" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1905" s="5"/>
+      <c r="B1905" s="3"/>
     </row>
     <row r="1906" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1906" s="5"/>
+      <c r="B1906" s="3"/>
     </row>
     <row r="1907" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1907" s="5"/>
+      <c r="B1907" s="3"/>
     </row>
     <row r="1908" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1908" s="5"/>
+      <c r="B1908" s="3"/>
     </row>
     <row r="1909" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1909" s="5"/>
+      <c r="B1909" s="3"/>
     </row>
     <row r="1910" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1910" s="5"/>
+      <c r="B1910" s="3"/>
     </row>
     <row r="1911" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1911" s="5"/>
+      <c r="B1911" s="3"/>
     </row>
     <row r="1912" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1912" s="5"/>
+      <c r="B1912" s="3"/>
     </row>
     <row r="1913" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1913" s="5"/>
+      <c r="B1913" s="3"/>
     </row>
     <row r="1914" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1914" s="5"/>
+      <c r="B1914" s="3"/>
     </row>
     <row r="1915" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1915" s="5"/>
+      <c r="B1915" s="3"/>
     </row>
     <row r="1916" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1916" s="5"/>
+      <c r="B1916" s="3"/>
     </row>
     <row r="1917" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1917" s="5"/>
+      <c r="B1917" s="3"/>
     </row>
     <row r="1918" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1918" s="5"/>
+      <c r="B1918" s="3"/>
     </row>
     <row r="1919" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1919" s="5"/>
+      <c r="B1919" s="3"/>
     </row>
     <row r="1920" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1920" s="5"/>
+      <c r="B1920" s="3"/>
     </row>
     <row r="1921" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1921" s="5"/>
+      <c r="B1921" s="3"/>
     </row>
     <row r="1922" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1922" s="5"/>
+      <c r="B1922" s="3"/>
     </row>
     <row r="1923" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1923" s="5"/>
+      <c r="B1923" s="3"/>
     </row>
     <row r="1924" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1924" s="5"/>
+      <c r="B1924" s="3"/>
     </row>
     <row r="1925" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1925" s="5"/>
+      <c r="B1925" s="3"/>
     </row>
     <row r="1926" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1926" s="5"/>
+      <c r="B1926" s="3"/>
     </row>
     <row r="1927" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1927" s="5"/>
+      <c r="B1927" s="3"/>
     </row>
     <row r="1928" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1928" s="5"/>
+      <c r="B1928" s="3"/>
     </row>
     <row r="1929" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1929" s="5"/>
+      <c r="B1929" s="3"/>
     </row>
     <row r="1930" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1930" s="5"/>
+      <c r="B1930" s="3"/>
     </row>
     <row r="1931" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1931" s="5"/>
+      <c r="B1931" s="3"/>
     </row>
     <row r="1932" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1932" s="5"/>
+      <c r="B1932" s="3"/>
     </row>
     <row r="1933" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1933" s="5"/>
+      <c r="B1933" s="3"/>
     </row>
     <row r="1934" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1934" s="5"/>
+      <c r="B1934" s="3"/>
     </row>
     <row r="1935" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1935" s="5"/>
+      <c r="B1935" s="3"/>
     </row>
     <row r="1936" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1936" s="5"/>
+      <c r="B1936" s="3"/>
     </row>
     <row r="1937" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1937" s="5"/>
+      <c r="B1937" s="3"/>
     </row>
     <row r="1938" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1938" s="5"/>
+      <c r="B1938" s="3"/>
     </row>
     <row r="1939" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1939" s="5"/>
+      <c r="B1939" s="3"/>
     </row>
     <row r="1940" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1940" s="5"/>
+      <c r="B1940" s="3"/>
     </row>
     <row r="1941" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1941" s="5"/>
+      <c r="B1941" s="3"/>
     </row>
     <row r="1942" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1942" s="5"/>
+      <c r="B1942" s="3"/>
     </row>
     <row r="1943" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1943" s="5"/>
+      <c r="B1943" s="3"/>
     </row>
     <row r="1944" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1944" s="5"/>
+      <c r="B1944" s="3"/>
     </row>
     <row r="1945" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1945" s="5"/>
+      <c r="B1945" s="3"/>
     </row>
     <row r="1946" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1946" s="5"/>
+      <c r="B1946" s="3"/>
     </row>
     <row r="1947" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1947" s="5"/>
+      <c r="B1947" s="3"/>
     </row>
     <row r="1948" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1948" s="5"/>
+      <c r="B1948" s="3"/>
     </row>
     <row r="1949" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1949" s="5"/>
+      <c r="B1949" s="3"/>
     </row>
     <row r="1950" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1950" s="5"/>
+      <c r="B1950" s="3"/>
     </row>
     <row r="1951" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1951" s="5"/>
+      <c r="B1951" s="3"/>
     </row>
     <row r="1952" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1952" s="5"/>
+      <c r="B1952" s="3"/>
     </row>
     <row r="1953" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1953" s="5"/>
+      <c r="B1953" s="3"/>
     </row>
     <row r="1954" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1954" s="5"/>
+      <c r="B1954" s="3"/>
     </row>
     <row r="1955" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1955" s="5"/>
+      <c r="B1955" s="3"/>
     </row>
     <row r="1956" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1956" s="5"/>
+      <c r="B1956" s="3"/>
     </row>
     <row r="1957" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1957" s="5"/>
+      <c r="B1957" s="3"/>
     </row>
     <row r="1958" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1958" s="5"/>
+      <c r="B1958" s="3"/>
     </row>
     <row r="1959" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1959" s="5"/>
+      <c r="B1959" s="3"/>
     </row>
     <row r="1960" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1960" s="5"/>
+      <c r="B1960" s="3"/>
     </row>
     <row r="1961" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1961" s="5"/>
+      <c r="B1961" s="3"/>
     </row>
     <row r="1962" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1962" s="5"/>
+      <c r="B1962" s="3"/>
     </row>
     <row r="1963" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1963" s="5"/>
+      <c r="B1963" s="3"/>
     </row>
     <row r="1964" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1964" s="5"/>
+      <c r="B1964" s="3"/>
     </row>
     <row r="1965" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1965" s="5"/>
+      <c r="B1965" s="3"/>
     </row>
     <row r="1966" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1966" s="5"/>
+      <c r="B1966" s="3"/>
     </row>
     <row r="1967" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1967" s="5"/>
+      <c r="B1967" s="3"/>
     </row>
     <row r="1968" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1968" s="5"/>
+      <c r="B1968" s="3"/>
     </row>
     <row r="1969" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1969" s="5"/>
+      <c r="B1969" s="3"/>
     </row>
     <row r="1970" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1970" s="5"/>
+      <c r="B1970" s="3"/>
     </row>
     <row r="1971" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1971" s="5"/>
+      <c r="B1971" s="3"/>
     </row>
     <row r="1972" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1972" s="5"/>
+      <c r="B1972" s="3"/>
     </row>
     <row r="1973" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1973" s="5"/>
+      <c r="B1973" s="3"/>
     </row>
     <row r="1974" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1974" s="5"/>
+      <c r="B1974" s="3"/>
     </row>
     <row r="1975" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1975" s="5"/>
+      <c r="B1975" s="3"/>
     </row>
     <row r="1976" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1976" s="5"/>
+      <c r="B1976" s="3"/>
     </row>
     <row r="1977" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1977" s="5"/>
+      <c r="B1977" s="3"/>
     </row>
     <row r="1978" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1978" s="5"/>
+      <c r="B1978" s="3"/>
     </row>
     <row r="1979" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1979" s="5"/>
+      <c r="B1979" s="3"/>
     </row>
     <row r="1980" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1980" s="5"/>
+      <c r="B1980" s="3"/>
     </row>
     <row r="1981" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1981" s="5"/>
+      <c r="B1981" s="3"/>
     </row>
     <row r="1982" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1982" s="5"/>
+      <c r="B1982" s="3"/>
     </row>
     <row r="1983" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1983" s="5"/>
+      <c r="B1983" s="3"/>
     </row>
     <row r="1984" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1984" s="5"/>
+      <c r="B1984" s="3"/>
     </row>
     <row r="1985" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1985" s="5"/>
+      <c r="B1985" s="3"/>
     </row>
     <row r="1986" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1986" s="5"/>
+      <c r="B1986" s="3"/>
     </row>
     <row r="1987" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1987" s="5"/>
+      <c r="B1987" s="3"/>
     </row>
     <row r="1988" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1988" s="5"/>
+      <c r="B1988" s="3"/>
     </row>
     <row r="1989" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1989" s="5"/>
+      <c r="B1989" s="3"/>
     </row>
     <row r="1990" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1990" s="5"/>
+      <c r="B1990" s="3"/>
     </row>
     <row r="1991" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1991" s="5"/>
+      <c r="B1991" s="3"/>
     </row>
     <row r="1992" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1992" s="5"/>
+      <c r="B1992" s="3"/>
     </row>
     <row r="1993" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1993" s="5"/>
+      <c r="B1993" s="3"/>
     </row>
     <row r="1994" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1994" s="5"/>
+      <c r="B1994" s="3"/>
     </row>
     <row r="1995" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1995" s="5"/>
+      <c r="B1995" s="3"/>
     </row>
     <row r="1996" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1996" s="5"/>
+      <c r="B1996" s="3"/>
     </row>
     <row r="1997" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1997" s="5"/>
+      <c r="B1997" s="3"/>
     </row>
     <row r="1998" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1998" s="5"/>
+      <c r="B1998" s="3"/>
     </row>
     <row r="1999" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1999" s="5"/>
+      <c r="B1999" s="3"/>
     </row>
     <row r="2000" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2000" s="5"/>
+      <c r="B2000" s="3"/>
     </row>
     <row r="2001" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2001" s="5"/>
+      <c r="B2001" s="3"/>
     </row>
     <row r="2002" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2002" s="5"/>
+      <c r="B2002" s="3"/>
     </row>
     <row r="2003" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2003" s="5"/>
+      <c r="B2003" s="3"/>
     </row>
     <row r="2004" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2004" s="5"/>
+      <c r="B2004" s="3"/>
     </row>
     <row r="2005" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2005" s="5"/>
+      <c r="B2005" s="3"/>
     </row>
     <row r="2006" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2006" s="5"/>
+      <c r="B2006" s="3"/>
     </row>
     <row r="2007" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2007" s="5"/>
+      <c r="B2007" s="3"/>
     </row>
     <row r="2008" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2008" s="5"/>
+      <c r="B2008" s="3"/>
     </row>
     <row r="2009" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2009" s="5"/>
+      <c r="B2009" s="3"/>
     </row>
     <row r="2010" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2010" s="5"/>
+      <c r="B2010" s="3"/>
     </row>
     <row r="2011" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2011" s="5"/>
+      <c r="B2011" s="3"/>
     </row>
     <row r="2012" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2012" s="5"/>
+      <c r="B2012" s="3"/>
     </row>
     <row r="2013" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2013" s="5"/>
+      <c r="B2013" s="3"/>
     </row>
     <row r="2014" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2014" s="5"/>
+      <c r="B2014" s="3"/>
     </row>
     <row r="2015" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2015" s="5"/>
+      <c r="B2015" s="3"/>
     </row>
     <row r="2016" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2016" s="5"/>
+      <c r="B2016" s="3"/>
     </row>
     <row r="2017" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2017" s="5"/>
+      <c r="B2017" s="3"/>
     </row>
     <row r="2018" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2018" s="5"/>
+      <c r="B2018" s="3"/>
     </row>
     <row r="2019" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2019" s="5"/>
+      <c r="B2019" s="3"/>
     </row>
     <row r="2020" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2020" s="5"/>
+      <c r="B2020" s="3"/>
     </row>
     <row r="2021" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2021" s="5"/>
+      <c r="B2021" s="3"/>
     </row>
     <row r="2022" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2022" s="5"/>
+      <c r="B2022" s="3"/>
     </row>
     <row r="2023" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2023" s="5"/>
+      <c r="B2023" s="3"/>
     </row>
     <row r="2024" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2024" s="5"/>
+      <c r="B2024" s="3"/>
     </row>
     <row r="2025" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2025" s="5"/>
+      <c r="B2025" s="3"/>
     </row>
     <row r="2026" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2026" s="5"/>
+      <c r="B2026" s="3"/>
     </row>
     <row r="2027" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2027" s="5"/>
+      <c r="B2027" s="3"/>
     </row>
     <row r="2028" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2028" s="5"/>
+      <c r="B2028" s="3"/>
     </row>
     <row r="2029" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2029" s="5"/>
+      <c r="B2029" s="3"/>
     </row>
     <row r="2030" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2030" s="5"/>
+      <c r="B2030" s="3"/>
     </row>
     <row r="2031" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2031" s="5"/>
+      <c r="B2031" s="3"/>
     </row>
     <row r="2032" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2032" s="5"/>
+      <c r="B2032" s="3"/>
     </row>
     <row r="2033" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2033" s="5"/>
+      <c r="B2033" s="3"/>
     </row>
     <row r="2034" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2034" s="5"/>
+      <c r="B2034" s="3"/>
     </row>
     <row r="2035" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2035" s="5"/>
+      <c r="B2035" s="3"/>
     </row>
     <row r="2036" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2036" s="5"/>
+      <c r="B2036" s="3"/>
     </row>
     <row r="2037" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2037" s="5"/>
+      <c r="B2037" s="3"/>
     </row>
     <row r="2038" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2038" s="5"/>
+      <c r="B2038" s="3"/>
     </row>
     <row r="2039" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2039" s="5"/>
+      <c r="B2039" s="3"/>
     </row>
     <row r="2040" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2040" s="5"/>
+      <c r="B2040" s="3"/>
     </row>
     <row r="2041" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2041" s="5"/>
+      <c r="B2041" s="3"/>
     </row>
     <row r="2042" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2042" s="5"/>
+      <c r="B2042" s="3"/>
     </row>
     <row r="2043" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2043" s="5"/>
+      <c r="B2043" s="3"/>
     </row>
     <row r="2044" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2044" s="5"/>
+      <c r="B2044" s="3"/>
     </row>
     <row r="2045" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2045" s="5"/>
+      <c r="B2045" s="3"/>
     </row>
     <row r="2046" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2046" s="5"/>
+      <c r="B2046" s="3"/>
     </row>
     <row r="2047" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2047" s="5"/>
+      <c r="B2047" s="3"/>
     </row>
     <row r="2048" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2048" s="5"/>
+      <c r="B2048" s="3"/>
     </row>
     <row r="2049" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2049" s="5"/>
+      <c r="B2049" s="3"/>
     </row>
     <row r="2050" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2050" s="5"/>
+      <c r="B2050" s="3"/>
     </row>
     <row r="2051" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2051" s="5"/>
+      <c r="B2051" s="3"/>
     </row>
     <row r="2052" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2052" s="5"/>
+      <c r="B2052" s="3"/>
     </row>
     <row r="2053" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2053" s="5"/>
+      <c r="B2053" s="3"/>
     </row>
     <row r="2054" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2054" s="5"/>
+      <c r="B2054" s="3"/>
     </row>
     <row r="2055" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2055" s="5"/>
+      <c r="B2055" s="3"/>
     </row>
     <row r="2056" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2056" s="5"/>
+      <c r="B2056" s="3"/>
     </row>
     <row r="2057" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2057" s="5"/>
+      <c r="B2057" s="3"/>
     </row>
     <row r="2058" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2058" s="5"/>
+      <c r="B2058" s="3"/>
     </row>
     <row r="2059" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2059" s="5"/>
+      <c r="B2059" s="3"/>
     </row>
     <row r="2060" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2060" s="5"/>
+      <c r="B2060" s="3"/>
     </row>
     <row r="2061" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2061" s="5"/>
+      <c r="B2061" s="3"/>
     </row>
     <row r="2062" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2062" s="5"/>
+      <c r="B2062" s="3"/>
     </row>
     <row r="2063" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2063" s="5"/>
+      <c r="B2063" s="3"/>
     </row>
     <row r="2064" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2064" s="5"/>
+      <c r="B2064" s="3"/>
     </row>
     <row r="2065" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2065" s="5"/>
+      <c r="B2065" s="3"/>
     </row>
     <row r="2066" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2066" s="5"/>
+      <c r="B2066" s="3"/>
     </row>
     <row r="2067" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2067" s="5"/>
+      <c r="B2067" s="3"/>
     </row>
     <row r="2068" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2068" s="5"/>
+      <c r="B2068" s="3"/>
     </row>
     <row r="2069" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2069" s="5"/>
+      <c r="B2069" s="3"/>
     </row>
     <row r="2070" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2070" s="5"/>
+      <c r="B2070" s="3"/>
     </row>
     <row r="2071" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2071" s="5"/>
+      <c r="B2071" s="3"/>
     </row>
     <row r="2072" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2072" s="5"/>
+      <c r="B2072" s="3"/>
     </row>
     <row r="2073" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2073" s="5"/>
+      <c r="B2073" s="3"/>
     </row>
     <row r="2074" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2074" s="5"/>
+      <c r="B2074" s="3"/>
     </row>
     <row r="2075" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2075" s="5"/>
+      <c r="B2075" s="3"/>
     </row>
     <row r="2076" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2076" s="5"/>
+      <c r="B2076" s="3"/>
     </row>
     <row r="2077" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2077" s="5"/>
+      <c r="B2077" s="3"/>
     </row>
     <row r="2078" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2078" s="5"/>
+      <c r="B2078" s="3"/>
     </row>
     <row r="2079" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2079" s="5"/>
+      <c r="B2079" s="3"/>
     </row>
     <row r="2080" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2080" s="5"/>
+      <c r="B2080" s="3"/>
     </row>
     <row r="2081" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2081" s="5"/>
+      <c r="B2081" s="3"/>
     </row>
     <row r="2082" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2082" s="5"/>
+      <c r="B2082" s="3"/>
     </row>
     <row r="2083" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2083" s="5"/>
+      <c r="B2083" s="3"/>
     </row>
     <row r="2084" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2084" s="5"/>
+      <c r="B2084" s="3"/>
     </row>
     <row r="2085" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2085" s="5"/>
+      <c r="B2085" s="3"/>
     </row>
     <row r="2086" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2086" s="5"/>
+      <c r="B2086" s="3"/>
     </row>
     <row r="2087" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2087" s="5"/>
+      <c r="B2087" s="3"/>
     </row>
     <row r="2088" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2088" s="5"/>
+      <c r="B2088" s="3"/>
     </row>
     <row r="2089" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2089" s="5"/>
+      <c r="B2089" s="3"/>
     </row>
     <row r="2090" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2090" s="5"/>
+      <c r="B2090" s="3"/>
     </row>
     <row r="2091" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2091" s="5"/>
+      <c r="B2091" s="3"/>
     </row>
     <row r="2092" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2092" s="5"/>
+      <c r="B2092" s="3"/>
     </row>
     <row r="2093" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2093" s="5"/>
+      <c r="B2093" s="3"/>
     </row>
     <row r="2094" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2094" s="5"/>
+      <c r="B2094" s="3"/>
     </row>
     <row r="2095" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2095" s="5"/>
+      <c r="B2095" s="3"/>
     </row>
     <row r="2096" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2096" s="5"/>
+      <c r="B2096" s="3"/>
     </row>
     <row r="2097" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2097" s="5"/>
+      <c r="B2097" s="3"/>
     </row>
     <row r="2098" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2098" s="5"/>
+      <c r="B2098" s="3"/>
     </row>
     <row r="2099" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2099" s="5"/>
+      <c r="B2099" s="3"/>
     </row>
     <row r="2100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2100" s="5"/>
+      <c r="B2100" s="3"/>
     </row>
     <row r="2101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2101" s="5"/>
+      <c r="B2101" s="3"/>
     </row>
     <row r="2102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2102" s="5"/>
+      <c r="B2102" s="3"/>
     </row>
     <row r="2103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2103" s="5"/>
+      <c r="B2103" s="3"/>
     </row>
     <row r="2104" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2104" s="5"/>
+      <c r="B2104" s="3"/>
     </row>
     <row r="2105" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2105" s="5"/>
+      <c r="B2105" s="3"/>
     </row>
     <row r="2106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2106" s="5"/>
+      <c r="B2106" s="3"/>
     </row>
     <row r="2107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2107" s="5"/>
+      <c r="B2107" s="3"/>
     </row>
     <row r="2108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2108" s="5"/>
+      <c r="B2108" s="3"/>
     </row>
     <row r="2109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2109" s="5"/>
+      <c r="B2109" s="3"/>
     </row>
     <row r="2110" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2110" s="5"/>
+      <c r="B2110" s="3"/>
     </row>
     <row r="2111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2111" s="5"/>
+      <c r="B2111" s="3"/>
     </row>
     <row r="2112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2112" s="5"/>
+      <c r="B2112" s="3"/>
     </row>
     <row r="2113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2113" s="5"/>
+      <c r="B2113" s="3"/>
     </row>
     <row r="2114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2114" s="5"/>
+      <c r="B2114" s="3"/>
     </row>
     <row r="2115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2115" s="5"/>
+      <c r="B2115" s="3"/>
     </row>
     <row r="2116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2116" s="5"/>
+      <c r="B2116" s="3"/>
     </row>
     <row r="2117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2117" s="5"/>
+      <c r="B2117" s="3"/>
     </row>
     <row r="2118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2118" s="5"/>
+      <c r="B2118" s="3"/>
     </row>
     <row r="2119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2119" s="5"/>
+      <c r="B2119" s="3"/>
     </row>
     <row r="2120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2120" s="5"/>
+      <c r="B2120" s="3"/>
     </row>
     <row r="2121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2121" s="5"/>
+      <c r="B2121" s="3"/>
     </row>
     <row r="2122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2122" s="5"/>
+      <c r="B2122" s="3"/>
     </row>
     <row r="2123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2123" s="5"/>
+      <c r="B2123" s="3"/>
     </row>
     <row r="2124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2124" s="5"/>
+      <c r="B2124" s="3"/>
     </row>
     <row r="2125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2125" s="5"/>
+      <c r="B2125" s="3"/>
     </row>
     <row r="2126" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2126" s="5"/>
+      <c r="B2126" s="3"/>
     </row>
     <row r="2127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2127" s="5"/>
+      <c r="B2127" s="3"/>
     </row>
     <row r="2128" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2128" s="5"/>
+      <c r="B2128" s="3"/>
     </row>
     <row r="2129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2129" s="5"/>
+      <c r="B2129" s="3"/>
     </row>
     <row r="2130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2130" s="5"/>
+      <c r="B2130" s="3"/>
     </row>
     <row r="2131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2131" s="5"/>
+      <c r="B2131" s="3"/>
     </row>
     <row r="2132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2132" s="5"/>
+      <c r="B2132" s="3"/>
     </row>
     <row r="2133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2133" s="5"/>
+      <c r="B2133" s="3"/>
     </row>
     <row r="2134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2134" s="5"/>
+      <c r="B2134" s="3"/>
     </row>
     <row r="2135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2135" s="5"/>
+      <c r="B2135" s="3"/>
     </row>
     <row r="2136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2136" s="5"/>
+      <c r="B2136" s="3"/>
     </row>
     <row r="2137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2137" s="5"/>
+      <c r="B2137" s="3"/>
     </row>
     <row r="2138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2138" s="5"/>
+      <c r="B2138" s="3"/>
     </row>
     <row r="2139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2139" s="5"/>
+      <c r="B2139" s="3"/>
     </row>
     <row r="2140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2140" s="5"/>
+      <c r="B2140" s="3"/>
     </row>
     <row r="2141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2141" s="5"/>
+      <c r="B2141" s="3"/>
     </row>
     <row r="2142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2142" s="5"/>
+      <c r="B2142" s="3"/>
     </row>
     <row r="2143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2143" s="5"/>
+      <c r="B2143" s="3"/>
     </row>
     <row r="2144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2144" s="5"/>
+      <c r="B2144" s="3"/>
     </row>
     <row r="2145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2145" s="5"/>
+      <c r="B2145" s="3"/>
     </row>
     <row r="2146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2146" s="5"/>
+      <c r="B2146" s="3"/>
     </row>
     <row r="2147" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2147" s="5"/>
+      <c r="B2147" s="3"/>
     </row>
     <row r="2148" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2148" s="5"/>
+      <c r="B2148" s="3"/>
     </row>
     <row r="2149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2149" s="5"/>
+      <c r="B2149" s="3"/>
     </row>
     <row r="2150" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2150" s="5"/>
+      <c r="B2150" s="3"/>
     </row>
     <row r="2151" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2151" s="5"/>
+      <c r="B2151" s="3"/>
     </row>
     <row r="2152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2152" s="5"/>
+      <c r="B2152" s="3"/>
     </row>
     <row r="2153" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2153" s="5"/>
+      <c r="B2153" s="3"/>
     </row>
     <row r="2154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2154" s="5"/>
+      <c r="B2154" s="3"/>
     </row>
     <row r="2155" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2155" s="5"/>
+      <c r="B2155" s="3"/>
     </row>
     <row r="2156" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2156" s="5"/>
+      <c r="B2156" s="3"/>
     </row>
     <row r="2157" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2157" s="5"/>
+      <c r="B2157" s="3"/>
     </row>
     <row r="2158" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2158" s="5"/>
+      <c r="B2158" s="3"/>
     </row>
     <row r="2159" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2159" s="5"/>
+      <c r="B2159" s="3"/>
     </row>
     <row r="2160" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2160" s="5"/>
+      <c r="B2160" s="3"/>
     </row>
     <row r="2161" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2161" s="5"/>
+      <c r="B2161" s="3"/>
     </row>
     <row r="2162" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2162" s="5"/>
+      <c r="B2162" s="3"/>
     </row>
     <row r="2163" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2163" s="5"/>
+      <c r="B2163" s="3"/>
     </row>
     <row r="2164" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2164" s="5"/>
+      <c r="B2164" s="3"/>
     </row>
     <row r="2165" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2165" s="5"/>
+      <c r="B2165" s="3"/>
     </row>
     <row r="2166" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2166" s="5"/>
+      <c r="B2166" s="3"/>
     </row>
     <row r="2167" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2167" s="5"/>
+      <c r="B2167" s="3"/>
     </row>
     <row r="2168" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2168" s="5"/>
+      <c r="B2168" s="3"/>
     </row>
     <row r="2169" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2169" s="5"/>
+      <c r="B2169" s="3"/>
     </row>
     <row r="2170" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2170" s="5"/>
+      <c r="B2170" s="3"/>
     </row>
     <row r="2171" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2171" s="5"/>
+      <c r="B2171" s="3"/>
     </row>
     <row r="2172" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2172" s="5"/>
+      <c r="B2172" s="3"/>
     </row>
     <row r="2173" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2173" s="5"/>
+      <c r="B2173" s="3"/>
     </row>
     <row r="2174" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2174" s="5"/>
+      <c r="B2174" s="3"/>
     </row>
     <row r="2175" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2175" s="5"/>
+      <c r="B2175" s="3"/>
     </row>
     <row r="2176" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2176" s="5"/>
+      <c r="B2176" s="3"/>
     </row>
     <row r="2177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2177" s="5"/>
+      <c r="B2177" s="3"/>
     </row>
     <row r="2178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2178" s="5"/>
+      <c r="B2178" s="3"/>
     </row>
     <row r="2179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2179" s="5"/>
+      <c r="B2179" s="3"/>
     </row>
     <row r="2180" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2180" s="5"/>
+      <c r="B2180" s="3"/>
     </row>
     <row r="2181" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2181" s="5"/>
+      <c r="B2181" s="3"/>
     </row>
     <row r="2182" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2182" s="5"/>
+      <c r="B2182" s="3"/>
     </row>
     <row r="2183" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2183" s="5"/>
+      <c r="B2183" s="3"/>
     </row>
     <row r="2184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2184" s="5"/>
+      <c r="B2184" s="3"/>
     </row>
     <row r="2185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2185" s="5"/>
+      <c r="B2185" s="3"/>
     </row>
     <row r="2186" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2186" s="5"/>
+      <c r="B2186" s="3"/>
     </row>
     <row r="2187" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2187" s="5"/>
+      <c r="B2187" s="3"/>
     </row>
     <row r="2188" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2188" s="5"/>
+      <c r="B2188" s="3"/>
     </row>
     <row r="2189" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2189" s="5"/>
+      <c r="B2189" s="3"/>
     </row>
     <row r="2190" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2190" s="5"/>
+      <c r="B2190" s="3"/>
     </row>
     <row r="2191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2191" s="5"/>
+      <c r="B2191" s="3"/>
     </row>
     <row r="2192" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2192" s="5"/>
+      <c r="B2192" s="3"/>
     </row>
     <row r="2193" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2193" s="5"/>
+      <c r="B2193" s="3"/>
     </row>
     <row r="2194" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2194" s="5"/>
+      <c r="B2194" s="3"/>
     </row>
     <row r="2195" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2195" s="5"/>
+      <c r="B2195" s="3"/>
     </row>
     <row r="2196" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2196" s="5"/>
+      <c r="B2196" s="3"/>
     </row>
     <row r="2197" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2197" s="5"/>
+      <c r="B2197" s="3"/>
     </row>
     <row r="2198" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2198" s="5"/>
+      <c r="B2198" s="3"/>
     </row>
     <row r="2199" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2199" s="5"/>
+      <c r="B2199" s="3"/>
     </row>
     <row r="2200" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2200" s="5"/>
+      <c r="B2200" s="3"/>
     </row>
     <row r="2201" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2201" s="5"/>
+      <c r="B2201" s="3"/>
     </row>
     <row r="2202" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2202" s="5"/>
+      <c r="B2202" s="3"/>
     </row>
     <row r="2203" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2203" s="5"/>
+      <c r="B2203" s="3"/>
     </row>
     <row r="2204" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2204" s="5"/>
+      <c r="B2204" s="3"/>
     </row>
     <row r="2205" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2205" s="5"/>
+      <c r="B2205" s="3"/>
     </row>
     <row r="2206" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2206" s="5"/>
+      <c r="B2206" s="3"/>
     </row>
     <row r="2207" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2207" s="5"/>
+      <c r="B2207" s="3"/>
     </row>
     <row r="2208" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2208" s="5"/>
+      <c r="B2208" s="3"/>
     </row>
     <row r="2209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2209" s="5"/>
+      <c r="B2209" s="3"/>
     </row>
     <row r="2210" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2210" s="5"/>
+      <c r="B2210" s="3"/>
     </row>
     <row r="2211" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2211" s="5"/>
+      <c r="B2211" s="3"/>
     </row>
     <row r="2212" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2212" s="5"/>
+      <c r="B2212" s="3"/>
     </row>
     <row r="2213" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2213" s="5"/>
+      <c r="B2213" s="3"/>
     </row>
     <row r="2214" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2214" s="5"/>
+      <c r="B2214" s="3"/>
     </row>
     <row r="2215" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2215" s="5"/>
+      <c r="B2215" s="3"/>
     </row>
     <row r="2216" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2216" s="5"/>
+      <c r="B2216" s="3"/>
     </row>
     <row r="2217" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2217" s="5"/>
+      <c r="B2217" s="3"/>
     </row>
     <row r="2218" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2218" s="5"/>
+      <c r="B2218" s="3"/>
     </row>
     <row r="2219" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2219" s="5"/>
+      <c r="B2219" s="3"/>
     </row>
     <row r="2220" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2220" s="5"/>
+      <c r="B2220" s="3"/>
     </row>
     <row r="2221" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2221" s="5"/>
+      <c r="B2221" s="3"/>
     </row>
     <row r="2222" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2222" s="5"/>
+      <c r="B2222" s="3"/>
     </row>
     <row r="2223" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2223" s="5"/>
+      <c r="B2223" s="3"/>
     </row>
     <row r="2224" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2224" s="5"/>
+      <c r="B2224" s="3"/>
     </row>
     <row r="2225" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2225" s="5"/>
+      <c r="B2225" s="3"/>
     </row>
     <row r="2226" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2226" s="5"/>
+      <c r="B2226" s="3"/>
     </row>
     <row r="2227" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2227" s="5"/>
+      <c r="B2227" s="3"/>
     </row>
     <row r="2228" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2228" s="5"/>
+      <c r="B2228" s="3"/>
     </row>
     <row r="2229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2229" s="5"/>
+      <c r="B2229" s="3"/>
     </row>
     <row r="2230" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2230" s="5"/>
+      <c r="B2230" s="3"/>
     </row>
     <row r="2231" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2231" s="5"/>
+      <c r="B2231" s="3"/>
     </row>
     <row r="2232" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2232" s="5"/>
+      <c r="B2232" s="3"/>
     </row>
     <row r="2233" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2233" s="5"/>
+      <c r="B2233" s="3"/>
     </row>
     <row r="2234" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2234" s="5"/>
+      <c r="B2234" s="3"/>
     </row>
     <row r="2235" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2235" s="5"/>
+      <c r="B2235" s="3"/>
     </row>
     <row r="2236" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2236" s="5"/>
+      <c r="B2236" s="3"/>
     </row>
     <row r="2237" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2237" s="5"/>
+      <c r="B2237" s="3"/>
     </row>
     <row r="2238" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2238" s="5"/>
+      <c r="B2238" s="3"/>
     </row>
     <row r="2239" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2239" s="5"/>
+      <c r="B2239" s="3"/>
     </row>
     <row r="2240" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2240" s="5"/>
+      <c r="B2240" s="3"/>
     </row>
     <row r="2241" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2241" s="5"/>
+      <c r="B2241" s="3"/>
     </row>
     <row r="2242" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2242" s="5"/>
+      <c r="B2242" s="3"/>
     </row>
     <row r="2243" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2243" s="5"/>
+      <c r="B2243" s="3"/>
     </row>
     <row r="2244" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2244" s="5"/>
+      <c r="B2244" s="3"/>
     </row>
     <row r="2245" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2245" s="5"/>
+      <c r="B2245" s="3"/>
     </row>
     <row r="2246" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2246" s="5"/>
+      <c r="B2246" s="3"/>
     </row>
     <row r="2247" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2247" s="5"/>
+      <c r="B2247" s="3"/>
     </row>
     <row r="2248" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2248" s="5"/>
+      <c r="B2248" s="3"/>
     </row>
     <row r="2249" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2249" s="5"/>
+      <c r="B2249" s="3"/>
     </row>
     <row r="2250" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2250" s="5"/>
+      <c r="B2250" s="3"/>
     </row>
     <row r="2251" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2251" s="5"/>
+      <c r="B2251" s="3"/>
     </row>
     <row r="2252" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2252" s="5"/>
+      <c r="B2252" s="3"/>
     </row>
     <row r="2253" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2253" s="5"/>
+      <c r="B2253" s="3"/>
     </row>
     <row r="2254" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2254" s="5"/>
+      <c r="B2254" s="3"/>
     </row>
     <row r="2255" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2255" s="5"/>
+      <c r="B2255" s="3"/>
     </row>
     <row r="2256" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2256" s="5"/>
+      <c r="B2256" s="3"/>
     </row>
     <row r="2257" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2257" s="5"/>
+      <c r="B2257" s="3"/>
     </row>
     <row r="2258" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2258" s="5"/>
+      <c r="B2258" s="3"/>
     </row>
     <row r="2259" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2259" s="5"/>
+      <c r="B2259" s="3"/>
     </row>
     <row r="2260" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2260" s="5"/>
+      <c r="B2260" s="3"/>
     </row>
     <row r="2261" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2261" s="5"/>
+      <c r="B2261" s="3"/>
     </row>
     <row r="2262" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2262" s="5"/>
+      <c r="B2262" s="3"/>
     </row>
     <row r="2263" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2263" s="5"/>
+      <c r="B2263" s="3"/>
     </row>
     <row r="2264" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2264" s="5"/>
+      <c r="B2264" s="3"/>
     </row>
     <row r="2265" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2265" s="5"/>
+      <c r="B2265" s="3"/>
     </row>
     <row r="2266" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2266" s="5"/>
+      <c r="B2266" s="3"/>
     </row>
     <row r="2267" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2267" s="5"/>
+      <c r="B2267" s="3"/>
     </row>
     <row r="2268" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2268" s="5"/>
+      <c r="B2268" s="3"/>
     </row>
     <row r="2269" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2269" s="5"/>
+      <c r="B2269" s="3"/>
     </row>
     <row r="2270" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2270" s="5"/>
+      <c r="B2270" s="3"/>
     </row>
     <row r="2271" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2271" s="5"/>
+      <c r="B2271" s="3"/>
     </row>
     <row r="2272" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2272" s="5"/>
+      <c r="B2272" s="3"/>
     </row>
     <row r="2273" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2273" s="5"/>
+      <c r="B2273" s="3"/>
     </row>
     <row r="2274" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2274" s="5"/>
+      <c r="B2274" s="3"/>
     </row>
     <row r="2275" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2275" s="5"/>
+      <c r="B2275" s="3"/>
     </row>
     <row r="2276" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2276" s="5"/>
+      <c r="B2276" s="3"/>
     </row>
     <row r="2277" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2277" s="5"/>
+      <c r="B2277" s="3"/>
     </row>
     <row r="2278" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2278" s="5"/>
+      <c r="B2278" s="3"/>
     </row>
     <row r="2279" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2279" s="5"/>
+      <c r="B2279" s="3"/>
     </row>
     <row r="2280" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2280" s="5"/>
+      <c r="B2280" s="3"/>
     </row>
     <row r="2281" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2281" s="5"/>
+      <c r="B2281" s="3"/>
     </row>
     <row r="2282" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2282" s="5"/>
+      <c r="B2282" s="3"/>
     </row>
     <row r="2283" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2283" s="5"/>
+      <c r="B2283" s="3"/>
     </row>
     <row r="2284" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2284" s="5"/>
+      <c r="B2284" s="3"/>
     </row>
     <row r="2285" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2285" s="5"/>
+      <c r="B2285" s="3"/>
     </row>
     <row r="2286" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2286" s="5"/>
+      <c r="B2286" s="3"/>
     </row>
     <row r="2287" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2287" s="5"/>
+      <c r="B2287" s="3"/>
     </row>
     <row r="2288" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2288" s="5"/>
+      <c r="B2288" s="3"/>
     </row>
     <row r="2289" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2289" s="5"/>
+      <c r="B2289" s="3"/>
     </row>
     <row r="2290" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2290" s="5"/>
+      <c r="B2290" s="3"/>
     </row>
     <row r="2291" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2291" s="5"/>
+      <c r="B2291" s="3"/>
     </row>
     <row r="2292" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2292" s="5"/>
+      <c r="B2292" s="3"/>
     </row>
     <row r="2293" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2293" s="5"/>
+      <c r="B2293" s="3"/>
     </row>
     <row r="2294" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2294" s="5"/>
+      <c r="B2294" s="3"/>
     </row>
     <row r="2295" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2295" s="5"/>
+      <c r="B2295" s="3"/>
     </row>
     <row r="2296" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2296" s="5"/>
+      <c r="B2296" s="3"/>
     </row>
     <row r="2297" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2297" s="5"/>
+      <c r="B2297" s="3"/>
     </row>
     <row r="2298" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2298" s="5"/>
+      <c r="B2298" s="3"/>
     </row>
     <row r="2299" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2299" s="5"/>
+      <c r="B2299" s="3"/>
     </row>
     <row r="2300" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2300" s="5"/>
+      <c r="B2300" s="3"/>
     </row>
     <row r="2301" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2301" s="5"/>
+      <c r="B2301" s="3"/>
     </row>
     <row r="2302" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2302" s="5"/>
+      <c r="B2302" s="3"/>
     </row>
     <row r="2303" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2303" s="5"/>
+      <c r="B2303" s="3"/>
     </row>
     <row r="2304" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2304" s="5"/>
+      <c r="B2304" s="3"/>
     </row>
     <row r="2305" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2305" s="5"/>
+      <c r="B2305" s="3"/>
     </row>
     <row r="2306" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2306" s="5"/>
+      <c r="B2306" s="3"/>
     </row>
     <row r="2307" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2307" s="5"/>
+      <c r="B2307" s="3"/>
     </row>
     <row r="2308" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2308" s="5"/>
+      <c r="B2308" s="3"/>
     </row>
     <row r="2309" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2309" s="5"/>
+      <c r="B2309" s="3"/>
     </row>
     <row r="2310" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2310" s="5"/>
+      <c r="B2310" s="3"/>
     </row>
     <row r="2311" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2311" s="5"/>
+      <c r="B2311" s="3"/>
     </row>
     <row r="2312" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2312" s="5"/>
+      <c r="B2312" s="3"/>
     </row>
     <row r="2313" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2313" s="5"/>
+      <c r="B2313" s="3"/>
     </row>
     <row r="2314" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2314" s="5"/>
+      <c r="B2314" s="3"/>
     </row>
     <row r="2315" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2315" s="5"/>
+      <c r="B2315" s="3"/>
     </row>
     <row r="2316" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2316" s="5"/>
+      <c r="B2316" s="3"/>
     </row>
     <row r="2317" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2317" s="5"/>
+      <c r="B2317" s="3"/>
     </row>
     <row r="2318" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2318" s="5"/>
+      <c r="B2318" s="3"/>
     </row>
     <row r="2319" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2319" s="5"/>
+      <c r="B2319" s="3"/>
     </row>
     <row r="2320" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2320" s="5"/>
+      <c r="B2320" s="3"/>
     </row>
     <row r="2321" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2321" s="5"/>
+      <c r="B2321" s="3"/>
     </row>
     <row r="2322" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2322" s="5"/>
+      <c r="B2322" s="3"/>
     </row>
     <row r="2323" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2323" s="5"/>
+      <c r="B2323" s="3"/>
     </row>
     <row r="2324" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2324" s="5"/>
+      <c r="B2324" s="3"/>
     </row>
     <row r="2325" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2325" s="5"/>
+      <c r="B2325" s="3"/>
     </row>
     <row r="2326" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2326" s="5"/>
+      <c r="B2326" s="3"/>
     </row>
     <row r="2327" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2327" s="5"/>
+      <c r="B2327" s="3"/>
     </row>
     <row r="2328" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2328" s="5"/>
+      <c r="B2328" s="3"/>
     </row>
     <row r="2329" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2329" s="5"/>
+      <c r="B2329" s="3"/>
     </row>
     <row r="2330" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2330" s="5"/>
+      <c r="B2330" s="3"/>
     </row>
     <row r="2331" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2331" s="5"/>
+      <c r="B2331" s="3"/>
     </row>
     <row r="2332" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2332" s="5"/>
+      <c r="B2332" s="3"/>
     </row>
     <row r="2333" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2333" s="5"/>
+      <c r="B2333" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataset/Sensor1.xlsx
+++ b/dataset/Sensor1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\code\_python\sensor_fault_dataset\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636EE475-C08D-4B52-810E-15CAA74A3359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2947531E-1F24-4AA4-A026-50514CCB2477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,6 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,10 +144,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -456,7 +459,7 @@
   <dimension ref="A1:F2333"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
